--- a/data_sono.xlsx
+++ b/data_sono.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4b858b1fb629067/Documentos/Sono_and_sarcopenia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{FB44A811-B97E-4A28-97EA-98F8A973D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BC9A19-1811-446C-ADC9-BDCDFA9420DF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{FB44A811-B97E-4A28-97EA-98F8A973D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DECA054F-437C-45E2-9603-BB00847FC209}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{F813DBCE-2B26-46A8-A8D3-E95AC96C4756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F813DBCE-2B26-46A8-A8D3-E95AC96C4756}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Paciente</t>
   </si>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>SPPB</t>
+  </si>
+  <si>
+    <t>vel_marcha</t>
+  </si>
+  <si>
+    <t>tug</t>
   </si>
 </sst>
 </file>
@@ -774,18 +780,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B26A7B-F7F7-4150-8F7B-5AA74F22F6DE}">
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
-      <selection activeCell="T106" sqref="T106"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,40 +820,46 @@
         <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -876,40 +888,46 @@
         <v>10</v>
       </c>
       <c r="J2" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10.97</v>
+      </c>
+      <c r="L2" s="1">
         <v>32.799999999999997</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>99</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>111</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>0.89</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>15.9244</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>0.48523262299999997</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>0.71</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <v>28.964600000000001</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="1">
         <v>42.9</v>
       </c>
-      <c r="T2" s="1">
+      <c r="V2" s="1">
         <v>13.7812</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,40 +956,46 @@
         <v>5</v>
       </c>
       <c r="J3" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="K3" s="1">
+        <v>18.53</v>
+      </c>
+      <c r="L3" s="1">
         <v>39.5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>118.7</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>112.1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>1.06</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>9</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>10.209199999999999</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>0.25873795599999999</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>1.2909999999999999</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>45.286200000000001</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>53</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <v>29.532</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1000,40 +1024,46 @@
         <v>7</v>
       </c>
       <c r="J4" s="1">
+        <v>4.46</v>
+      </c>
+      <c r="K4" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="L4" s="1">
         <v>32.9</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>114</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>113</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>1.01</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>20.5809</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>0.62609264200000003</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>1.83</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>40.431899999999999</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>43.7</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>24.3978</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1062,40 +1092,46 @@
         <v>9</v>
       </c>
       <c r="J5" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="L5" s="1">
         <v>26.1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>102</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>102</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>18.580400000000001</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>0.71311229799999998</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>1.0720000000000001</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>25.4878</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
         <v>34.700000000000003</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>12.9915</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1124,40 +1160,46 @@
         <v>8</v>
       </c>
       <c r="J6" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="L6" s="1">
         <v>38</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>106.5</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>114</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>0.93</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>17.9696</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>0.472865007</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>0.749</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>34.8581</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <v>45</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>16.512699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1186,40 +1228,46 @@
         <v>5</v>
       </c>
       <c r="J7" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="K7" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="L7" s="1">
         <v>28.3</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>105.1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>95</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>4</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>15.555400000000001</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>0.54877897899999994</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>1.081</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <v>24.414400000000001</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>37.299999999999997</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>14.295500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1248,40 +1296,46 @@
         <v>5</v>
       </c>
       <c r="J8" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15.53</v>
+      </c>
+      <c r="L8" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>112.7</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>116</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>0.97</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>5</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>17.052499999999998</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>0.48932138800000002</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>0.91</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <v>41.015000000000001</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <v>48.7</v>
       </c>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>19.621400000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1310,40 +1364,46 @@
         <v>9</v>
       </c>
       <c r="J9" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="L9" s="1">
         <v>28.6</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>92</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>109</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>0.84</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>4</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>14.5166</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>0.50826658199999997</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>0.754</v>
       </c>
-      <c r="R9" s="1">
+      <c r="T9" s="1">
         <v>32.003</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <v>46.5</v>
       </c>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <v>18.337499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1372,40 +1432,46 @@
         <v>5</v>
       </c>
       <c r="J10" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="K10" s="1">
+        <v>13.81</v>
+      </c>
+      <c r="L10" s="1">
         <v>31.2</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>106</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>109</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>0.97</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>6</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>11.4528</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>0.36676305199999998</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>1.335</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <v>37.977200000000003</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>54.5</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>20.0274</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1434,40 +1500,46 @@
         <v>6</v>
       </c>
       <c r="J11" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>14.74</v>
+      </c>
+      <c r="L11" s="1">
         <v>33.9</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>101</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>125.1</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>0.81</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>5</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>17.1877</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>0.50761944400000003</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>0.82</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <v>41.829000000000001</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <v>50.1</v>
       </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
         <v>20.3184</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1496,40 +1568,46 @@
         <v>8</v>
       </c>
       <c r="J12" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10.96</v>
+      </c>
+      <c r="L12" s="1">
         <v>39.799999999999997</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>106.9</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>120</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>0.89</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>4</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>20.362200000000001</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>0.51150368499999999</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>0.91700000000000004</v>
       </c>
-      <c r="R12" s="1">
+      <c r="T12" s="1">
         <v>45.3748</v>
       </c>
-      <c r="S12" s="1">
+      <c r="U12" s="1">
         <v>47.6</v>
       </c>
-      <c r="T12" s="1">
+      <c r="V12" s="1">
         <v>20.497499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1558,40 +1636,44 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
+        <v>32.15</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
         <v>27.5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>86.2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>86</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>10</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>12.0838</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>0.43916772399999998</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>0.40200000000000002</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>19.050599999999999</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>37.1</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <v>8.7757000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1620,40 +1702,46 @@
         <v>8</v>
       </c>
       <c r="J14" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="L14" s="1">
         <v>28.9</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>103.8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>97.8</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>1.06</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>3</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>20.953800000000001</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>0.72394315399999998</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
         <v>24.468</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <v>31.9</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>13.281000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1682,40 +1770,46 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="L15" s="1">
         <v>31.7</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>90.4</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>97.5</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>0.93</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>10</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>12.7508</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>0.40237825500000002</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <v>0.49299999999999999</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="1">
         <v>28.192</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="1">
         <v>45.6</v>
       </c>
-      <c r="T15" s="1">
+      <c r="V15" s="1">
         <v>13.355</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1744,40 +1838,46 @@
         <v>9</v>
       </c>
       <c r="J16" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="L16" s="1">
         <v>40.6</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>121.6</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>117</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>1.04</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>8</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>14.272600000000001</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>0.351662802</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <v>1.659</v>
       </c>
-      <c r="R16" s="1">
+      <c r="T16" s="1">
         <v>46.853499999999997</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="1">
         <v>54.5</v>
       </c>
-      <c r="T16" s="1">
+      <c r="V16" s="1">
         <v>24.8736</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,40 +1906,46 @@
         <v>7</v>
       </c>
       <c r="J17" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10.82</v>
+      </c>
+      <c r="L17" s="1">
         <v>33.4</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>107.1</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>98.5</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>7</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>14.388299999999999</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>0.430160555</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="R17" s="1">
+      <c r="T17" s="1">
         <v>35.307000000000002</v>
       </c>
-      <c r="S17" s="1">
+      <c r="U17" s="1">
         <v>46.1</v>
       </c>
-      <c r="T17" s="1">
+      <c r="V17" s="1">
         <v>19.911999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1868,40 +1974,46 @@
         <v>8</v>
       </c>
       <c r="J18" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K18" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="L18" s="1">
         <v>43.3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>112</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>123</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="1">
         <v>0.91</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>7</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>18.254200000000001</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>0.42157700100000001</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="S18" s="1">
         <v>0.64300000000000002</v>
       </c>
-      <c r="R18" s="1">
+      <c r="T18" s="1">
         <v>55.942</v>
       </c>
-      <c r="S18" s="1">
+      <c r="U18" s="1">
         <v>54.7</v>
       </c>
-      <c r="T18" s="1">
+      <c r="V18" s="1">
         <v>28.6891</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1930,40 +2042,46 @@
         <v>3</v>
       </c>
       <c r="J19" s="1">
+        <v>8.76</v>
+      </c>
+      <c r="K19" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="L19" s="1">
         <v>28.5</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>89</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>96</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="1">
         <v>0.93</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>3</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>13.287100000000001</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>0.46600282199999998</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="S19" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="R19" s="1">
+      <c r="T19" s="1">
         <v>33.035200000000003</v>
       </c>
-      <c r="S19" s="1">
+      <c r="U19" s="1">
         <v>36</v>
       </c>
-      <c r="T19" s="1">
+      <c r="V19" s="1">
         <v>8.0652000000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1992,40 +2110,46 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="L20" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>102.5</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>115</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="1">
         <v>0.89</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>10</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>15.960800000000001</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>0.49480566399999998</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>1.071</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="1">
         <v>36.212000000000003</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="1">
         <v>48.4</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="1">
         <v>17.957000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2054,40 +2178,46 @@
         <v>9</v>
       </c>
       <c r="J21" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="L21" s="1">
         <v>31.2</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>89.7</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>93.9</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="1">
         <v>0.96</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>14</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>13.906000000000001</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>0.44637198500000003</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="S21" s="1">
         <v>0.63700000000000001</v>
       </c>
-      <c r="R21" s="1">
+      <c r="T21" s="1">
         <v>28.562999999999999</v>
       </c>
-      <c r="S21" s="1">
+      <c r="U21" s="1">
         <v>45</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V21" s="1">
         <v>13.3725</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2116,40 +2246,46 @@
         <v>6</v>
       </c>
       <c r="J22" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="K22" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="L22" s="1">
         <v>35.299999999999997</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>105</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>104.5</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>4</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q22" s="1">
         <v>16.619599999999998</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>0.47138606</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="1">
+      <c r="T22" s="1">
         <v>36.755200000000002</v>
       </c>
-      <c r="S22" s="1">
+      <c r="U22" s="1">
         <v>47.3</v>
       </c>
-      <c r="T22" s="1">
+      <c r="V22" s="1">
         <v>15.661799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2178,40 +2314,46 @@
         <v>7</v>
       </c>
       <c r="J23" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="K23" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="L23" s="1">
         <v>42.4</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>116</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>118.5</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="1">
         <v>0.98</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>8</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>14.793699999999999</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>0.34898994700000002</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="S23" s="1">
         <v>1.075</v>
       </c>
-      <c r="R23" s="1">
+      <c r="T23" s="1">
         <v>44.927300000000002</v>
       </c>
-      <c r="S23" s="1">
+      <c r="U23" s="1">
         <v>52.7</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V23" s="1">
         <v>22.706299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,40 +2382,46 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="L24" s="1">
         <v>31.3</v>
       </c>
-      <c r="K24" s="1">
+      <c r="M24" s="1">
         <v>96</v>
       </c>
-      <c r="L24" s="1">
+      <c r="N24" s="1">
         <v>106</v>
       </c>
-      <c r="M24" s="1">
+      <c r="O24" s="1">
         <v>0.91</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>2</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q24" s="1">
         <v>15.257300000000001</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>0.48677501099999998</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="S24" s="1">
         <v>0.84</v>
       </c>
-      <c r="R24" s="1">
+      <c r="T24" s="1">
         <v>27.046299999999999</v>
       </c>
-      <c r="S24" s="1">
+      <c r="U24" s="1">
         <v>42</v>
       </c>
-      <c r="T24" s="1">
+      <c r="V24" s="1">
         <v>13.691800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2302,40 +2450,46 @@
         <v>9</v>
       </c>
       <c r="J25" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="L25" s="1">
         <v>25.1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M25" s="1">
         <v>85</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N25" s="1">
         <v>91</v>
       </c>
-      <c r="M25" s="1">
+      <c r="O25" s="1">
         <v>0.93</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <v>4</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q25" s="1">
         <v>11.913600000000001</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R25" s="1">
         <v>0.474572094</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="S25" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="R25" s="1">
+      <c r="T25" s="1">
         <v>22</v>
       </c>
-      <c r="S25" s="1">
+      <c r="U25" s="1">
         <v>38.799999999999997</v>
       </c>
-      <c r="T25" s="1">
+      <c r="V25" s="1">
         <v>11.119899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,40 +2518,46 @@
         <v>8</v>
       </c>
       <c r="J26" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="K26" s="1">
+        <v>11.38</v>
+      </c>
+      <c r="L26" s="1">
         <v>45.6</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M26" s="1">
         <v>145.5</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N26" s="1">
         <v>125</v>
       </c>
-      <c r="M26" s="1">
+      <c r="O26" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
         <v>11</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q26" s="1">
         <v>17.189900000000002</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R26" s="1">
         <v>0.37720044800000002</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="S26" s="1">
         <v>1.5429999999999999</v>
       </c>
-      <c r="R26" s="1">
+      <c r="T26" s="1">
         <v>68.031000000000006</v>
       </c>
-      <c r="S26" s="1">
+      <c r="U26" s="1">
         <v>58.5</v>
       </c>
-      <c r="T26" s="1">
+      <c r="V26" s="1">
         <v>36.920200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -2426,40 +2586,46 @@
         <v>6</v>
       </c>
       <c r="J27" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="K27" s="1">
+        <v>16.28</v>
+      </c>
+      <c r="L27" s="1">
         <v>37.4</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M27" s="1">
         <v>104.3</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <v>106</v>
       </c>
-      <c r="M27" s="1">
+      <c r="O27" s="1">
         <v>0.98</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
         <v>4</v>
       </c>
-      <c r="O27" s="1">
+      <c r="Q27" s="1">
         <v>17.329999999999998</v>
       </c>
-      <c r="P27" s="1">
+      <c r="R27" s="1">
         <v>0.46298836300000001</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="S27" s="1">
         <v>1.054</v>
       </c>
-      <c r="R27" s="1">
+      <c r="T27" s="1">
         <v>40.869999999999997</v>
       </c>
-      <c r="S27" s="1">
+      <c r="U27" s="1">
         <v>50.4</v>
       </c>
-      <c r="T27" s="1">
+      <c r="V27" s="1">
         <v>18.196000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2488,40 +2654,46 @@
         <v>5</v>
       </c>
       <c r="J28" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="K28" s="1">
+        <v>15.93</v>
+      </c>
+      <c r="L28" s="1">
         <v>33.9</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M28" s="1">
         <v>99.5</v>
       </c>
-      <c r="L28" s="1">
+      <c r="N28" s="1">
         <v>105</v>
       </c>
-      <c r="M28" s="1">
+      <c r="O28" s="1">
         <v>0.95</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>7</v>
       </c>
-      <c r="O28" s="1">
+      <c r="Q28" s="1">
         <v>11.4261</v>
       </c>
-      <c r="P28" s="1">
+      <c r="R28" s="1">
         <v>0.33702931699999999</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="S28" s="1">
         <v>1.018</v>
       </c>
-      <c r="R28" s="1">
+      <c r="T28" s="1">
         <v>36.329300000000003</v>
       </c>
-      <c r="S28" s="1">
+      <c r="U28" s="1">
         <v>52.6</v>
       </c>
-      <c r="T28" s="1">
+      <c r="V28" s="1">
         <v>19.57</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -2550,40 +2722,46 @@
         <v>4</v>
       </c>
       <c r="J29" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K29" s="1">
+        <v>22.22</v>
+      </c>
+      <c r="L29" s="1">
         <v>31.9</v>
       </c>
-      <c r="K29" s="1">
+      <c r="M29" s="1">
         <v>102.5</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>96.5</v>
       </c>
-      <c r="M29" s="1">
+      <c r="O29" s="1">
         <v>1.06</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
         <v>8</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q29" s="1">
         <v>13.1663</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>0.413195847</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="S29" s="1">
         <v>0.872</v>
       </c>
-      <c r="R29" s="1">
+      <c r="T29" s="1">
         <v>27.9968</v>
       </c>
-      <c r="S29" s="1">
+      <c r="U29" s="1">
         <v>45.1</v>
       </c>
-      <c r="T29" s="1">
+      <c r="V29" s="1">
         <v>16.690100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -2612,40 +2790,46 @@
         <v>2</v>
       </c>
       <c r="J30" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>24.13</v>
+      </c>
+      <c r="L30" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M30" s="1">
         <v>116.5</v>
       </c>
-      <c r="L30" s="1">
+      <c r="N30" s="1">
         <v>117.5</v>
       </c>
-      <c r="M30" s="1">
+      <c r="O30" s="1">
         <v>0.99</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
         <v>2</v>
       </c>
-      <c r="O30" s="1">
+      <c r="Q30" s="1">
         <v>18.579799999999999</v>
       </c>
-      <c r="P30" s="1">
+      <c r="R30" s="1">
         <v>0.50686225299999998</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="S30" s="1">
         <v>0.9</v>
       </c>
-      <c r="R30" s="1">
+      <c r="T30" s="1">
         <v>41.125799999999998</v>
       </c>
-      <c r="S30" s="1">
+      <c r="U30" s="1">
         <v>46.4</v>
       </c>
-      <c r="T30" s="1">
+      <c r="V30" s="1">
         <v>22.884399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,40 +2858,46 @@
         <v>8</v>
       </c>
       <c r="J31" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="K31" s="1">
+        <v>10.31</v>
+      </c>
+      <c r="L31" s="1">
         <v>29.6</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M31" s="1">
         <v>99</v>
       </c>
-      <c r="L31" s="1">
+      <c r="N31" s="1">
         <v>93.7</v>
       </c>
-      <c r="M31" s="1">
+      <c r="O31" s="1">
         <v>1.06</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P31" s="1">
         <v>13</v>
       </c>
-      <c r="O31" s="1">
+      <c r="Q31" s="1">
         <v>15.6288</v>
       </c>
-      <c r="P31" s="1">
+      <c r="R31" s="1">
         <v>0.52854306500000003</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="S31" s="1">
         <v>1.046</v>
       </c>
-      <c r="R31" s="1">
+      <c r="T31" s="1">
         <v>29.2514</v>
       </c>
-      <c r="S31" s="1">
+      <c r="U31" s="1">
         <v>42</v>
       </c>
-      <c r="T31" s="1">
+      <c r="V31" s="1">
         <v>15.3649</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2736,40 +2926,46 @@
         <v>7</v>
       </c>
       <c r="J32" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="K32" s="1">
+        <v>10.53</v>
+      </c>
+      <c r="L32" s="1">
         <v>38.299999999999997</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M32" s="1">
         <v>110.7</v>
       </c>
-      <c r="L32" s="1">
+      <c r="N32" s="1">
         <v>118.1</v>
       </c>
-      <c r="M32" s="1">
+      <c r="O32" s="1">
         <v>0.94</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32" s="1">
         <v>16</v>
       </c>
-      <c r="O32" s="1">
+      <c r="Q32" s="1">
         <v>18.71</v>
       </c>
-      <c r="P32" s="1">
+      <c r="R32" s="1">
         <v>0.48802417999999997</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="S32" s="1">
         <v>1.306</v>
       </c>
-      <c r="R32" s="1">
+      <c r="T32" s="1">
         <v>48.005099999999999</v>
       </c>
-      <c r="S32" s="1">
+      <c r="U32" s="1">
         <v>53</v>
       </c>
-      <c r="T32" s="1">
+      <c r="V32" s="1">
         <v>24.137699999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2798,40 +2994,46 @@
         <v>6</v>
       </c>
       <c r="J33" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="K33" s="1">
+        <v>17.32</v>
+      </c>
+      <c r="L33" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M33" s="1">
         <v>118.7</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <v>109.2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="O33" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
         <v>2</v>
       </c>
-      <c r="O33" s="1">
+      <c r="Q33" s="1">
         <v>21.8766</v>
       </c>
-      <c r="P33" s="1">
+      <c r="R33" s="1">
         <v>0.59547596400000002</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="S33" s="1">
         <v>1.0349999999999999</v>
       </c>
-      <c r="R33" s="1">
+      <c r="T33" s="1">
         <v>60.993600000000001</v>
       </c>
-      <c r="S33" s="1">
+      <c r="U33" s="1">
         <v>55</v>
       </c>
-      <c r="T33" s="1">
+      <c r="V33" s="1">
         <v>28.455500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2860,40 +3062,46 @@
         <v>6</v>
       </c>
       <c r="J34" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19.62</v>
+      </c>
+      <c r="L34" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M34" s="1">
         <v>118.1</v>
       </c>
-      <c r="L34" s="1">
+      <c r="N34" s="1">
         <v>119.8</v>
       </c>
-      <c r="M34" s="1">
+      <c r="O34" s="1">
         <v>0.99</v>
       </c>
-      <c r="N34" s="1">
+      <c r="P34" s="1">
         <v>6</v>
       </c>
-      <c r="O34" s="1">
+      <c r="Q34" s="1">
         <v>17.382400000000001</v>
       </c>
-      <c r="P34" s="1">
+      <c r="R34" s="1">
         <v>0.459260273</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="S34" s="1">
         <v>0.58899999999999997</v>
       </c>
-      <c r="R34" s="1">
+      <c r="T34" s="1">
         <v>41.882599999999996</v>
       </c>
-      <c r="S34" s="1">
+      <c r="U34" s="1">
         <v>45.8</v>
       </c>
-      <c r="T34" s="1">
+      <c r="V34" s="1">
         <v>20.435099999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2922,40 +3130,46 @@
         <v>11</v>
       </c>
       <c r="J35" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="K35" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="L35" s="1">
         <v>31.7</v>
       </c>
-      <c r="K35" s="1">
+      <c r="M35" s="1">
         <v>111.5</v>
       </c>
-      <c r="L35" s="1">
+      <c r="N35" s="1">
         <v>99.7</v>
       </c>
-      <c r="M35" s="1">
+      <c r="O35" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N35" s="1">
+      <c r="P35" s="1">
         <v>2</v>
       </c>
-      <c r="O35" s="1">
+      <c r="Q35" s="1">
         <v>21.018899999999999</v>
       </c>
-      <c r="P35" s="1">
+      <c r="R35" s="1">
         <v>0.66220889800000005</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="S35" s="1">
         <v>1.2809999999999999</v>
       </c>
-      <c r="R35" s="1">
+      <c r="T35" s="1">
         <v>31.316299999999998</v>
       </c>
-      <c r="S35" s="1">
+      <c r="U35" s="1">
         <v>38.4</v>
       </c>
-      <c r="T35" s="1">
+      <c r="V35" s="1">
         <v>18.009</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2984,34 +3198,40 @@
         <v>6</v>
       </c>
       <c r="J36" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="K36" s="1">
+        <v>16.72</v>
+      </c>
+      <c r="L36" s="1">
         <v>34.6</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1">
         <v>7</v>
       </c>
-      <c r="O36" s="1">
+      <c r="Q36" s="1">
         <v>16.622</v>
       </c>
-      <c r="P36" s="1">
+      <c r="R36" s="1">
         <v>0.48088694599999998</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="S36" s="1">
         <v>1.171</v>
       </c>
-      <c r="R36" s="1">
+      <c r="T36" s="1">
         <v>43.367600000000003</v>
       </c>
-      <c r="S36" s="1">
+      <c r="U36" s="1">
         <v>52</v>
       </c>
-      <c r="T36" s="1">
+      <c r="V36" s="1">
         <v>21.356200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,40 +3260,46 @@
         <v>8</v>
       </c>
       <c r="J37" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="K37" s="1">
+        <v>16.75</v>
+      </c>
+      <c r="L37" s="1">
         <v>28.6</v>
       </c>
-      <c r="K37" s="1">
+      <c r="M37" s="1">
         <v>103.7</v>
       </c>
-      <c r="L37" s="1">
+      <c r="N37" s="1">
         <v>106.1</v>
       </c>
-      <c r="M37" s="1">
+      <c r="O37" s="1">
         <v>0.98</v>
       </c>
-      <c r="N37" s="1">
+      <c r="P37" s="1">
         <v>7</v>
       </c>
-      <c r="O37" s="1">
+      <c r="Q37" s="1">
         <v>13.606400000000001</v>
       </c>
-      <c r="P37" s="1">
+      <c r="R37" s="1">
         <v>0.47507223900000001</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="S37" s="1">
         <v>0.63200000000000001</v>
       </c>
-      <c r="R37" s="1">
+      <c r="T37" s="1">
         <v>34.695999999999998</v>
       </c>
-      <c r="S37" s="1">
+      <c r="U37" s="1">
         <v>50.8</v>
       </c>
-      <c r="T37" s="1">
+      <c r="V37" s="1">
         <v>15.7592</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -3102,40 +3328,46 @@
         <v>8</v>
       </c>
       <c r="J38" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="K38" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="L38" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="K38" s="1">
+      <c r="M38" s="1">
         <v>108</v>
       </c>
-      <c r="L38" s="1">
+      <c r="N38" s="1">
         <v>113</v>
       </c>
-      <c r="M38" s="1">
+      <c r="O38" s="1">
         <v>0.96</v>
       </c>
-      <c r="N38" s="1">
+      <c r="P38" s="1">
         <v>20</v>
       </c>
-      <c r="O38" s="1">
+      <c r="Q38" s="1">
         <v>18.4741</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>0.51609331700000005</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="S38" s="1">
         <v>1.101</v>
       </c>
-      <c r="R38" s="1">
+      <c r="T38" s="1">
         <v>36.796599999999998</v>
       </c>
-      <c r="S38" s="1">
+      <c r="U38" s="1">
         <v>43.7</v>
       </c>
-      <c r="T38" s="1">
+      <c r="V38" s="1">
         <v>20.757999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -3164,40 +3396,46 @@
         <v>8</v>
       </c>
       <c r="J39" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="L39" s="1">
         <v>35</v>
       </c>
-      <c r="K39" s="1">
+      <c r="M39" s="1">
         <v>88</v>
       </c>
-      <c r="L39" s="1">
+      <c r="N39" s="1">
         <v>118</v>
       </c>
-      <c r="M39" s="1">
+      <c r="O39" s="1">
         <v>0.75</v>
       </c>
-      <c r="N39" s="1">
+      <c r="P39" s="1">
         <v>6</v>
       </c>
-      <c r="O39" s="1">
+      <c r="Q39" s="1">
         <v>14.084099999999999</v>
       </c>
-      <c r="P39" s="1">
+      <c r="R39" s="1">
         <v>0.40196339800000003</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="S39" s="1">
         <v>0.54900000000000004</v>
       </c>
-      <c r="R39" s="1">
+      <c r="T39" s="1">
         <v>36.401000000000003</v>
       </c>
-      <c r="S39" s="1">
+      <c r="U39" s="1">
         <v>49.6</v>
       </c>
-      <c r="T39" s="1">
+      <c r="V39" s="1">
         <v>16.152799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,34 +3462,40 @@
         <v>8</v>
       </c>
       <c r="J40" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12.41</v>
+      </c>
+      <c r="L40" s="1">
         <v>27.2</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
         <v>10</v>
       </c>
-      <c r="O40" s="1">
+      <c r="Q40" s="1">
         <v>12.8973</v>
       </c>
-      <c r="P40" s="1">
+      <c r="R40" s="1">
         <v>0.47396059000000001</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="S40" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="R40" s="1">
+      <c r="T40" s="1">
         <v>26.9176</v>
       </c>
-      <c r="S40" s="1">
+      <c r="U40" s="1">
         <v>43.4</v>
       </c>
-      <c r="T40" s="1">
+      <c r="V40" s="1">
         <v>13.448700000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3280,40 +3524,46 @@
         <v>7</v>
       </c>
       <c r="J41" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="K41" s="1">
+        <v>10.32</v>
+      </c>
+      <c r="L41" s="1">
         <v>29.6</v>
       </c>
-      <c r="K41" s="1">
+      <c r="M41" s="1">
         <v>93</v>
       </c>
-      <c r="L41" s="1">
+      <c r="N41" s="1">
         <v>106.5</v>
       </c>
-      <c r="M41" s="1">
+      <c r="O41" s="1">
         <v>0.87</v>
       </c>
-      <c r="N41" s="1">
+      <c r="P41" s="1">
         <v>3</v>
       </c>
-      <c r="O41" s="1">
+      <c r="Q41" s="1">
         <v>16.0364</v>
       </c>
-      <c r="P41" s="1">
+      <c r="R41" s="1">
         <v>0.54264015499999996</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="S41" s="1">
         <v>0.91700000000000004</v>
       </c>
-      <c r="R41" s="1">
+      <c r="T41" s="1">
         <v>29.2837</v>
       </c>
-      <c r="S41" s="1">
+      <c r="U41" s="1">
         <v>42.2</v>
       </c>
-      <c r="T41" s="1">
+      <c r="V41" s="1">
         <v>14.987</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,34 +3590,40 @@
         <v>3</v>
       </c>
       <c r="J42" s="1">
+        <v>8.41</v>
+      </c>
+      <c r="K42" s="1">
+        <v>33.46</v>
+      </c>
+      <c r="L42" s="1">
         <v>28.7</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1">
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1">
         <v>7</v>
       </c>
-      <c r="O42" s="1">
+      <c r="Q42" s="1">
         <v>12.5267</v>
       </c>
-      <c r="P42" s="1">
+      <c r="R42" s="1">
         <v>0.43656075799999999</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="S42" s="1">
         <v>0.80600000000000005</v>
       </c>
-      <c r="R42" s="1">
+      <c r="T42" s="1">
         <v>24.887</v>
       </c>
-      <c r="S42" s="1">
+      <c r="U42" s="1">
         <v>42.8</v>
       </c>
-      <c r="T42" s="1">
+      <c r="V42" s="1">
         <v>14.093</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,40 +3652,44 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1">
         <v>37.6</v>
       </c>
-      <c r="K43" s="1">
+      <c r="M43" s="1">
         <v>109</v>
       </c>
-      <c r="L43" s="1">
+      <c r="N43" s="1">
         <v>116</v>
       </c>
-      <c r="M43" s="1">
+      <c r="O43" s="1">
         <v>0.94</v>
       </c>
-      <c r="N43" s="1">
+      <c r="P43" s="1">
         <v>12</v>
       </c>
-      <c r="O43" s="1">
+      <c r="Q43" s="1">
         <v>14.276899999999999</v>
       </c>
-      <c r="P43" s="1">
+      <c r="R43" s="1">
         <v>0.38020005400000001</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="S43" s="1">
         <v>0.746</v>
       </c>
-      <c r="R43" s="1">
+      <c r="T43" s="1">
         <v>35.021900000000002</v>
       </c>
-      <c r="S43" s="1">
+      <c r="U43" s="1">
         <v>48.8</v>
       </c>
-      <c r="T43" s="1">
+      <c r="V43" s="1">
         <v>16.3537</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -3458,40 +3718,46 @@
         <v>11</v>
       </c>
       <c r="J44" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="K44" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="L44" s="1">
         <v>37.1</v>
       </c>
-      <c r="K44" s="1">
+      <c r="M44" s="1">
         <v>118.5</v>
       </c>
-      <c r="L44" s="1">
+      <c r="N44" s="1">
         <v>103</v>
       </c>
-      <c r="M44" s="1">
+      <c r="O44" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N44" s="1">
+      <c r="P44" s="1">
         <v>1</v>
       </c>
-      <c r="O44" s="1">
+      <c r="Q44" s="1">
         <v>13.337199999999999</v>
       </c>
-      <c r="P44" s="1">
+      <c r="R44" s="1">
         <v>0.35914428199999998</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="S44" s="1">
         <v>1.895</v>
       </c>
-      <c r="R44" s="1">
+      <c r="T44" s="1">
         <v>42.230600000000003</v>
       </c>
-      <c r="S44" s="1">
+      <c r="U44" s="1">
         <v>52.3</v>
       </c>
-      <c r="T44" s="1">
+      <c r="V44" s="1">
         <v>26.627600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -3520,40 +3786,46 @@
         <v>11</v>
       </c>
       <c r="J45" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K45" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="L45" s="1">
         <v>30.8</v>
       </c>
-      <c r="K45" s="1">
+      <c r="M45" s="1">
         <v>110</v>
       </c>
-      <c r="L45" s="1">
+      <c r="N45" s="1">
         <v>106</v>
       </c>
-      <c r="M45" s="1">
+      <c r="O45" s="1">
         <v>1.04</v>
       </c>
-      <c r="N45" s="1">
+      <c r="P45" s="1">
         <v>2</v>
       </c>
-      <c r="O45" s="1">
+      <c r="Q45" s="1">
         <v>23.346699999999998</v>
       </c>
-      <c r="P45" s="1">
+      <c r="R45" s="1">
         <v>0.75821069699999999</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="S45" s="1">
         <v>1.127</v>
       </c>
-      <c r="R45" s="1">
+      <c r="T45" s="1">
         <v>34.912999999999997</v>
       </c>
-      <c r="S45" s="1">
+      <c r="U45" s="1">
         <v>38</v>
       </c>
-      <c r="T45" s="1">
+      <c r="V45" s="1">
         <v>18.015999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -3582,40 +3854,46 @@
         <v>11</v>
       </c>
       <c r="J46" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="L46" s="1">
         <v>32.4</v>
       </c>
-      <c r="K46" s="1">
+      <c r="M46" s="1">
         <v>110.5</v>
       </c>
-      <c r="L46" s="1">
+      <c r="N46" s="1">
         <v>107</v>
       </c>
-      <c r="M46" s="1">
+      <c r="O46" s="1">
         <v>1.03</v>
       </c>
-      <c r="N46" s="1">
+      <c r="P46" s="1">
         <v>10</v>
       </c>
-      <c r="O46" s="1">
+      <c r="Q46" s="1">
         <v>23.0806</v>
       </c>
-      <c r="P46" s="1">
+      <c r="R46" s="1">
         <v>0.71272084700000005</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="S46" s="1">
         <v>1.464</v>
       </c>
-      <c r="R46" s="1">
+      <c r="T46" s="1">
         <v>35.51</v>
       </c>
-      <c r="S46" s="1">
+      <c r="U46" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="T46" s="1">
+      <c r="V46" s="1">
         <v>19.151499999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -3644,40 +3922,46 @@
         <v>9</v>
       </c>
       <c r="J47" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="K47" s="1">
+        <v>11.37</v>
+      </c>
+      <c r="L47" s="1">
         <v>37.4</v>
       </c>
-      <c r="K47" s="1">
+      <c r="M47" s="1">
         <v>119</v>
       </c>
-      <c r="L47" s="1">
+      <c r="N47" s="1">
         <v>113</v>
       </c>
-      <c r="M47" s="1">
+      <c r="O47" s="1">
         <v>1.05</v>
       </c>
-      <c r="N47" s="1">
+      <c r="P47" s="1">
         <v>4</v>
       </c>
-      <c r="O47" s="1">
+      <c r="Q47" s="1">
         <v>25.1633</v>
       </c>
-      <c r="P47" s="1">
+      <c r="R47" s="1">
         <v>0.67196352100000001</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="S47" s="1">
         <v>1.1759999999999999</v>
       </c>
-      <c r="R47" s="1">
+      <c r="T47" s="1">
         <v>44.508600000000001</v>
       </c>
-      <c r="S47" s="1">
+      <c r="U47" s="1">
         <v>42.4</v>
       </c>
-      <c r="T47" s="1">
+      <c r="V47" s="1">
         <v>24.142399999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -3706,40 +3990,46 @@
         <v>10</v>
       </c>
       <c r="J48" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="K48" s="1">
+        <v>8.69</v>
+      </c>
+      <c r="L48" s="1">
         <v>35.9</v>
       </c>
-      <c r="K48" s="1">
+      <c r="M48" s="1">
         <v>116.4</v>
       </c>
-      <c r="L48" s="1">
+      <c r="N48" s="1">
         <v>113</v>
       </c>
-      <c r="M48" s="1">
+      <c r="O48" s="1">
         <v>1.03</v>
       </c>
-      <c r="N48" s="1">
+      <c r="P48" s="1">
         <v>8</v>
       </c>
-      <c r="O48" s="1">
+      <c r="Q48" s="1">
         <v>16.3857</v>
       </c>
-      <c r="P48" s="1">
+      <c r="R48" s="1">
         <v>0.45593771399999999</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="S48" s="1">
         <v>0.76800000000000002</v>
       </c>
-      <c r="R48" s="1">
+      <c r="T48" s="1">
         <v>49.880200000000002</v>
       </c>
-      <c r="S48" s="1">
+      <c r="U48" s="1">
         <v>53.4</v>
       </c>
-      <c r="T48" s="1">
+      <c r="V48" s="1">
         <v>26.045200000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -3768,40 +4058,46 @@
         <v>10</v>
       </c>
       <c r="J49" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="K49" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="L49" s="1">
         <v>30.7</v>
       </c>
-      <c r="K49" s="1">
+      <c r="M49" s="1">
         <v>103.4</v>
       </c>
-      <c r="L49" s="1">
+      <c r="N49" s="1">
         <v>96.4</v>
       </c>
-      <c r="M49" s="1">
+      <c r="O49" s="1">
         <v>1.07</v>
       </c>
-      <c r="N49" s="1">
+      <c r="P49" s="1">
         <v>4</v>
       </c>
-      <c r="O49" s="1">
+      <c r="Q49" s="1">
         <v>13.7773</v>
       </c>
-      <c r="P49" s="1">
+      <c r="R49" s="1">
         <v>0.44882204199999998</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="S49" s="1">
         <v>1.2430000000000001</v>
       </c>
-      <c r="R49" s="1">
+      <c r="T49" s="1">
         <v>35.005200000000002</v>
       </c>
-      <c r="S49" s="1">
+      <c r="U49" s="1">
         <v>50.1</v>
       </c>
-      <c r="T49" s="1">
+      <c r="V49" s="1">
         <v>19.260000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -3830,40 +4126,46 @@
         <v>8</v>
       </c>
       <c r="J50" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="K50" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="L50" s="1">
         <v>30.9</v>
       </c>
-      <c r="K50" s="1">
+      <c r="M50" s="1">
         <v>98.6</v>
       </c>
-      <c r="L50" s="1">
+      <c r="N50" s="1">
         <v>101</v>
       </c>
-      <c r="M50" s="1">
+      <c r="O50" s="1">
         <v>0.98</v>
       </c>
-      <c r="N50" s="1">
+      <c r="P50" s="1">
         <v>15</v>
       </c>
-      <c r="O50" s="1">
+      <c r="Q50" s="1">
         <v>17.160900000000002</v>
       </c>
-      <c r="P50" s="1">
+      <c r="R50" s="1">
         <v>0.55485253499999998</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="S50" s="1">
         <v>1.1180000000000001</v>
       </c>
-      <c r="R50" s="1">
+      <c r="T50" s="1">
         <v>33.517499999999998</v>
       </c>
-      <c r="S50" s="1">
+      <c r="U50" s="1">
         <v>43.9</v>
       </c>
-      <c r="T50" s="1">
+      <c r="V50" s="1">
         <v>17.662600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3892,40 +4194,46 @@
         <v>9</v>
       </c>
       <c r="J51" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7.77</v>
+      </c>
+      <c r="L51" s="1">
         <v>35.299999999999997</v>
       </c>
-      <c r="K51" s="1">
+      <c r="M51" s="1">
         <v>110.9</v>
       </c>
-      <c r="L51" s="1">
+      <c r="N51" s="1">
         <v>114</v>
       </c>
-      <c r="M51" s="1">
+      <c r="O51" s="1">
         <v>0.97</v>
       </c>
-      <c r="N51" s="1">
+      <c r="P51" s="1">
         <v>6</v>
       </c>
-      <c r="O51" s="1">
+      <c r="Q51" s="1">
         <v>17.7363</v>
       </c>
-      <c r="P51" s="1">
+      <c r="R51" s="1">
         <v>0.50299038299999999</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="S51" s="1">
         <v>0.88300000000000001</v>
       </c>
-      <c r="R51" s="1">
+      <c r="T51" s="1">
         <v>49.122999999999998</v>
       </c>
-      <c r="S51" s="1">
+      <c r="U51" s="1">
         <v>53.1</v>
       </c>
-      <c r="T51" s="1">
+      <c r="V51" s="1">
         <v>23.591999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -3954,40 +4262,46 @@
         <v>5</v>
       </c>
       <c r="J52" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="K52" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="L52" s="1">
         <v>30.9</v>
       </c>
-      <c r="K52" s="1">
+      <c r="M52" s="1">
         <v>98.2</v>
       </c>
-      <c r="L52" s="1">
+      <c r="N52" s="1">
         <v>112</v>
       </c>
-      <c r="M52" s="1">
+      <c r="O52" s="1">
         <v>0.88</v>
       </c>
-      <c r="N52" s="1">
+      <c r="P52" s="1">
         <v>5</v>
       </c>
-      <c r="O52" s="1">
+      <c r="Q52" s="1">
         <v>13.829000000000001</v>
       </c>
-      <c r="P52" s="1">
+      <c r="R52" s="1">
         <v>0.448041246</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="S52" s="1">
         <v>0.78700000000000003</v>
       </c>
-      <c r="R52" s="1">
+      <c r="T52" s="1">
         <v>33.716999999999999</v>
       </c>
-      <c r="S52" s="1">
+      <c r="U52" s="1">
         <v>46.8</v>
       </c>
-      <c r="T52" s="1">
+      <c r="V52" s="1">
         <v>17.077999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -4016,40 +4330,46 @@
         <v>9</v>
       </c>
       <c r="J53" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="K53" s="1">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="L53" s="1">
         <v>31.3</v>
       </c>
-      <c r="K53" s="1">
+      <c r="M53" s="1">
         <v>107.2</v>
       </c>
-      <c r="L53" s="1">
+      <c r="N53" s="1">
         <v>106.7</v>
       </c>
-      <c r="M53" s="1">
+      <c r="O53" s="1">
         <v>1</v>
       </c>
-      <c r="N53" s="1">
+      <c r="P53" s="1">
         <v>5</v>
       </c>
-      <c r="O53" s="1">
+      <c r="Q53" s="1">
         <v>12.519</v>
       </c>
-      <c r="P53" s="1">
+      <c r="R53" s="1">
         <v>0.40009410499999998</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="S53" s="1">
         <v>1.2430000000000001</v>
       </c>
-      <c r="R53" s="1">
+      <c r="T53" s="1">
         <v>32.838000000000001</v>
       </c>
-      <c r="S53" s="1">
+      <c r="U53" s="1">
         <v>48</v>
       </c>
-      <c r="T53" s="1">
+      <c r="V53" s="1">
         <v>18.21</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -4078,40 +4398,46 @@
         <v>10</v>
       </c>
       <c r="J54" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K54" s="1">
+        <v>10.81</v>
+      </c>
+      <c r="L54" s="1">
         <v>32</v>
       </c>
-      <c r="K54" s="1">
+      <c r="M54" s="1">
         <v>101.1</v>
       </c>
-      <c r="L54" s="1">
+      <c r="N54" s="1">
         <v>102</v>
       </c>
-      <c r="M54" s="1">
+      <c r="O54" s="1">
         <v>0.99</v>
       </c>
-      <c r="N54" s="1">
+      <c r="P54" s="1">
         <v>10</v>
       </c>
-      <c r="O54" s="1">
+      <c r="Q54" s="1">
         <v>13.900399999999999</v>
       </c>
-      <c r="P54" s="1">
+      <c r="R54" s="1">
         <v>0.43448767599999999</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="S54" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="R54" s="1">
+      <c r="T54" s="1">
         <v>33.293999999999997</v>
       </c>
-      <c r="S54" s="1">
+      <c r="U54" s="1">
         <v>48.3</v>
       </c>
-      <c r="T54" s="1">
+      <c r="V54" s="1">
         <v>17.651</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -4140,40 +4466,46 @@
         <v>8</v>
       </c>
       <c r="J55" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K55" s="1">
+        <v>13.27</v>
+      </c>
+      <c r="L55" s="1">
         <v>31.4</v>
       </c>
-      <c r="K55" s="1">
+      <c r="M55" s="1">
         <v>102</v>
       </c>
-      <c r="L55" s="1">
+      <c r="N55" s="1">
         <v>110</v>
       </c>
-      <c r="M55" s="1">
+      <c r="O55" s="1">
         <v>0.93</v>
       </c>
-      <c r="N55" s="1">
+      <c r="P55" s="1">
         <v>6</v>
       </c>
-      <c r="O55" s="1">
+      <c r="Q55" s="1">
         <v>14.7521</v>
       </c>
-      <c r="P55" s="1">
+      <c r="R55" s="1">
         <v>0.46976159299999998</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="S55" s="1">
         <v>0.67100000000000004</v>
       </c>
-      <c r="R55" s="1">
+      <c r="T55" s="1">
         <v>39.470999999999997</v>
       </c>
-      <c r="S55" s="1">
+      <c r="U55" s="1">
         <v>52</v>
       </c>
-      <c r="T55" s="1">
+      <c r="V55" s="1">
         <v>17.768999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -4202,40 +4534,46 @@
         <v>10</v>
       </c>
       <c r="J56" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="K56" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="L56" s="1">
         <v>29.1</v>
       </c>
-      <c r="K56" s="1">
+      <c r="M56" s="1">
         <v>97.2</v>
       </c>
-      <c r="L56" s="1">
+      <c r="N56" s="1">
         <v>103</v>
       </c>
-      <c r="M56" s="1">
+      <c r="O56" s="1">
         <v>0.94</v>
       </c>
-      <c r="N56" s="1">
+      <c r="P56" s="1">
         <v>2</v>
       </c>
-      <c r="O56" s="1">
+      <c r="Q56" s="1">
         <v>19.6126</v>
       </c>
-      <c r="P56" s="1">
+      <c r="R56" s="1">
         <v>0.67367682200000001</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="S56" s="1">
         <v>0.8</v>
       </c>
-      <c r="R56" s="1">
+      <c r="T56" s="1">
         <v>26.421099999999999</v>
       </c>
-      <c r="S56" s="1">
+      <c r="U56" s="1">
         <v>36.9</v>
       </c>
-      <c r="T56" s="1">
+      <c r="V56" s="1">
         <v>12.178699999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -4264,40 +4602,46 @@
         <v>12</v>
       </c>
       <c r="J57" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K57" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="L57" s="1">
         <v>30.4</v>
       </c>
-      <c r="K57" s="1">
+      <c r="M57" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="L57" s="1">
+      <c r="N57" s="1">
         <v>114</v>
       </c>
-      <c r="M57" s="1">
+      <c r="O57" s="1">
         <v>0.7</v>
       </c>
-      <c r="N57" s="1">
+      <c r="P57" s="1">
         <v>2</v>
       </c>
-      <c r="O57" s="1">
+      <c r="Q57" s="1">
         <v>18.118200000000002</v>
       </c>
-      <c r="P57" s="1">
+      <c r="R57" s="1">
         <v>0.59694455599999996</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="S57" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="R57" s="1">
+      <c r="T57" s="1">
         <v>76.075100000000006</v>
       </c>
-      <c r="S57" s="1">
+      <c r="U57" s="1">
         <v>43.7</v>
       </c>
-      <c r="T57" s="1">
+      <c r="V57" s="1">
         <v>12.176</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -4326,40 +4670,46 @@
         <v>10</v>
       </c>
       <c r="J58" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="K58" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="L58" s="1">
         <v>30</v>
       </c>
-      <c r="K58" s="1">
+      <c r="M58" s="1">
         <v>107.1</v>
       </c>
-      <c r="L58" s="1">
+      <c r="N58" s="1">
         <v>102.4</v>
       </c>
-      <c r="M58" s="1">
+      <c r="O58" s="1">
         <v>1.05</v>
       </c>
-      <c r="N58" s="1">
+      <c r="P58" s="1">
         <v>6</v>
       </c>
-      <c r="O58" s="1">
+      <c r="Q58" s="1">
         <v>19.580400000000001</v>
       </c>
-      <c r="P58" s="1">
+      <c r="R58" s="1">
         <v>0.65327988999999997</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="S58" s="1">
         <v>1.212</v>
       </c>
-      <c r="R58" s="1">
+      <c r="T58" s="1">
         <v>29.413799999999998</v>
       </c>
-      <c r="S58" s="1">
+      <c r="U58" s="1">
         <v>37.6</v>
       </c>
-      <c r="T58" s="1">
+      <c r="V58" s="1">
         <v>16.46</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
@@ -4388,40 +4738,46 @@
         <v>12</v>
       </c>
       <c r="J59" s="1">
+        <v>3</v>
+      </c>
+      <c r="K59" s="1">
+        <v>6.47</v>
+      </c>
+      <c r="L59" s="1">
         <v>30.5</v>
       </c>
-      <c r="K59" s="1">
+      <c r="M59" s="1">
         <v>106.4</v>
       </c>
-      <c r="L59" s="1">
+      <c r="N59" s="1">
         <v>97.8</v>
       </c>
-      <c r="M59" s="1">
+      <c r="O59" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N59" s="1">
+      <c r="P59" s="1">
         <v>3</v>
       </c>
-      <c r="O59" s="1">
+      <c r="Q59" s="1">
         <v>20.314599999999999</v>
       </c>
-      <c r="P59" s="1">
+      <c r="R59" s="1">
         <v>0.66611336300000001</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="S59" s="1">
         <v>0.84599999999999997</v>
       </c>
-      <c r="R59" s="1">
+      <c r="T59" s="1">
         <v>25.981000000000002</v>
       </c>
-      <c r="S59" s="1">
+      <c r="U59" s="1">
         <v>35.200000000000003</v>
       </c>
-      <c r="T59" s="1">
+      <c r="V59" s="1">
         <v>14.221</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -4450,40 +4806,46 @@
         <v>11</v>
       </c>
       <c r="J60" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="K60" s="1">
+        <v>6.52</v>
+      </c>
+      <c r="L60" s="1">
         <v>46.5</v>
       </c>
-      <c r="K60" s="1">
+      <c r="M60" s="1">
         <v>145.5</v>
       </c>
-      <c r="L60" s="1">
+      <c r="N60" s="1">
         <v>129.80000000000001</v>
       </c>
-      <c r="M60" s="1">
+      <c r="O60" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N60" s="1">
+      <c r="P60" s="1">
         <v>5</v>
       </c>
-      <c r="O60" s="1">
+      <c r="Q60" s="1">
         <v>27.8081</v>
       </c>
-      <c r="P60" s="1">
+      <c r="R60" s="1">
         <v>0.59795315000000004</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="S60" s="1">
         <v>1.206</v>
       </c>
-      <c r="R60" s="1">
+      <c r="T60" s="1">
         <v>66.438999999999993</v>
       </c>
-      <c r="S60" s="1">
+      <c r="U60" s="1">
         <v>48.3</v>
       </c>
-      <c r="T60" s="1">
+      <c r="V60" s="1">
         <v>38.201999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -4512,40 +4874,46 @@
         <v>10</v>
       </c>
       <c r="J61" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="K61" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="L61" s="1">
         <v>31.8</v>
       </c>
-      <c r="K61" s="1">
+      <c r="M61" s="1">
         <v>103</v>
       </c>
-      <c r="L61" s="1">
+      <c r="N61" s="1">
         <v>107.1</v>
       </c>
-      <c r="M61" s="1">
+      <c r="O61" s="1">
         <v>0.96</v>
       </c>
-      <c r="N61" s="1">
+      <c r="P61" s="1">
         <v>9</v>
       </c>
-      <c r="O61" s="1">
+      <c r="Q61" s="1">
         <v>14.424799999999999</v>
       </c>
-      <c r="P61" s="1">
+      <c r="R61" s="1">
         <v>0.45324851399999999</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="S61" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="R61" s="1">
+      <c r="T61" s="1">
         <v>35.411000000000001</v>
       </c>
-      <c r="S61" s="1">
+      <c r="U61" s="1">
         <v>48.7</v>
       </c>
-      <c r="T61" s="1">
+      <c r="V61" s="1">
         <v>16.742999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -4574,40 +4942,46 @@
         <v>10</v>
       </c>
       <c r="J62" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="K62" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="L62" s="1">
         <v>31.9</v>
       </c>
-      <c r="K62" s="1">
+      <c r="M62" s="1">
         <v>92.5</v>
       </c>
-      <c r="L62" s="1">
+      <c r="N62" s="1">
         <v>106</v>
       </c>
-      <c r="M62" s="1">
+      <c r="O62" s="1">
         <v>0.87</v>
       </c>
-      <c r="N62" s="1">
+      <c r="P62" s="1">
         <v>7</v>
       </c>
-      <c r="O62" s="1">
+      <c r="Q62" s="1">
         <v>13.877800000000001</v>
       </c>
-      <c r="P62" s="1">
+      <c r="R62" s="1">
         <v>0.43465345900000002</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="S62" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="R62" s="1">
+      <c r="T62" s="1">
         <v>34.7179</v>
       </c>
-      <c r="S62" s="1">
+      <c r="U62" s="1">
         <v>48.7</v>
       </c>
-      <c r="T62" s="1">
+      <c r="V62" s="1">
         <v>15.977499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -4636,40 +5010,46 @@
         <v>10</v>
       </c>
       <c r="J63" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K63" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L63" s="1">
         <v>46</v>
       </c>
-      <c r="K63" s="1">
+      <c r="M63" s="1">
         <v>143.5</v>
       </c>
-      <c r="L63" s="1">
+      <c r="N63" s="1">
         <v>127</v>
       </c>
-      <c r="M63" s="1">
+      <c r="O63" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="N63" s="1">
+      <c r="P63" s="1">
         <v>2</v>
       </c>
-      <c r="O63" s="1">
+      <c r="Q63" s="1">
         <v>17.8597</v>
       </c>
-      <c r="P63" s="1">
+      <c r="R63" s="1">
         <v>0.38786960500000001</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="S63" s="1">
         <v>2.335</v>
       </c>
-      <c r="R63" s="1">
+      <c r="T63" s="1">
         <v>53.0334</v>
       </c>
-      <c r="S63" s="1">
+      <c r="U63" s="1">
         <v>54.4</v>
       </c>
-      <c r="T63" s="1">
+      <c r="V63" s="1">
         <v>33.415700000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
@@ -4698,40 +5078,46 @@
         <v>12</v>
       </c>
       <c r="J64" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="K64" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="L64" s="1">
         <v>37.799999999999997</v>
       </c>
-      <c r="K64" s="1">
+      <c r="M64" s="1">
         <v>105.7</v>
       </c>
-      <c r="L64" s="1">
+      <c r="N64" s="1">
         <v>113.8</v>
       </c>
-      <c r="M64" s="1">
+      <c r="O64" s="1">
         <v>0.93</v>
       </c>
-      <c r="N64" s="1">
+      <c r="P64" s="1">
         <v>7</v>
       </c>
-      <c r="O64" s="1">
+      <c r="Q64" s="1">
         <v>15.2102</v>
       </c>
-      <c r="P64" s="1">
+      <c r="R64" s="1">
         <v>0.40266241400000002</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="S64" s="1">
         <v>1.361</v>
       </c>
-      <c r="R64" s="1">
+      <c r="T64" s="1">
         <v>45.506500000000003</v>
       </c>
-      <c r="S64" s="1">
+      <c r="U64" s="1">
         <v>53.5</v>
       </c>
-      <c r="T64" s="1">
+      <c r="V64" s="1">
         <v>21.849299999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
@@ -4760,40 +5146,46 @@
         <v>11</v>
       </c>
       <c r="J65" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K65" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="L65" s="1">
         <v>31.8</v>
       </c>
-      <c r="K65" s="1">
+      <c r="M65" s="1">
         <v>105.3</v>
       </c>
-      <c r="L65" s="1">
+      <c r="N65" s="1">
         <v>107</v>
       </c>
-      <c r="M65" s="1">
+      <c r="O65" s="1">
         <v>0.98</v>
       </c>
-      <c r="N65" s="1">
+      <c r="P65" s="1">
         <v>7</v>
       </c>
-      <c r="O65" s="1">
+      <c r="Q65" s="1">
         <v>15.4343</v>
       </c>
-      <c r="P65" s="1">
+      <c r="R65" s="1">
         <v>0.48527659200000001</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="S65" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="R65" s="1">
+      <c r="T65" s="1">
         <v>33.138500000000001</v>
       </c>
-      <c r="S65" s="1">
+      <c r="U65" s="1">
         <v>45.6</v>
       </c>
-      <c r="T65" s="1">
+      <c r="V65" s="1">
         <v>16.9786</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -4822,40 +5214,46 @@
         <v>10</v>
       </c>
       <c r="J66" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="K66" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="L66" s="1">
         <v>39.700000000000003</v>
       </c>
-      <c r="K66" s="1">
+      <c r="M66" s="1">
         <v>112</v>
       </c>
-      <c r="L66" s="1">
+      <c r="N66" s="1">
         <v>114</v>
       </c>
-      <c r="M66" s="1">
+      <c r="O66" s="1">
         <v>0.98</v>
       </c>
-      <c r="N66" s="1">
+      <c r="P66" s="1">
         <v>7</v>
       </c>
-      <c r="O66" s="1">
+      <c r="Q66" s="1">
         <v>16.413</v>
       </c>
-      <c r="P66" s="1">
+      <c r="R66" s="1">
         <v>0.41343469599999999</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="S66" s="1">
         <v>1.1619999999999999</v>
       </c>
-      <c r="R66" s="1">
+      <c r="T66" s="1">
         <v>42.536000000000001</v>
       </c>
-      <c r="S66" s="1">
+      <c r="U66" s="1">
         <v>50.8</v>
       </c>
-      <c r="T66" s="1">
+      <c r="V66" s="1">
         <v>21.548999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
@@ -4884,40 +5282,46 @@
         <v>11</v>
       </c>
       <c r="J67" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K67" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="L67" s="1">
         <v>30.2</v>
       </c>
-      <c r="K67" s="1">
+      <c r="M67" s="1">
         <v>102.8</v>
       </c>
-      <c r="L67" s="1">
+      <c r="N67" s="1">
         <v>97.5</v>
       </c>
-      <c r="M67" s="1">
+      <c r="O67" s="1">
         <v>1.05</v>
       </c>
-      <c r="N67" s="1">
+      <c r="P67" s="1">
         <v>6</v>
       </c>
-      <c r="O67" s="1">
+      <c r="Q67" s="1">
         <v>16.6647</v>
       </c>
-      <c r="P67" s="1">
+      <c r="R67" s="1">
         <v>0.55177363800000001</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="S67" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="R67" s="1">
+      <c r="T67" s="1">
         <v>25.466999999999999</v>
       </c>
-      <c r="S67" s="1">
+      <c r="U67" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="T67" s="1">
+      <c r="V67" s="1">
         <v>13.695</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -4946,40 +5350,46 @@
         <v>10</v>
       </c>
       <c r="J68" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="K68" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="L68" s="1">
         <v>30</v>
       </c>
-      <c r="K68" s="1">
+      <c r="M68" s="1">
         <v>93.3</v>
       </c>
-      <c r="L68" s="1">
+      <c r="N68" s="1">
         <v>107</v>
       </c>
-      <c r="M68" s="1">
+      <c r="O68" s="1">
         <v>0.87</v>
       </c>
-      <c r="N68" s="1">
+      <c r="P68" s="1">
         <v>4</v>
       </c>
-      <c r="O68" s="1">
+      <c r="Q68" s="1">
         <v>15.8064</v>
       </c>
-      <c r="P68" s="1">
+      <c r="R68" s="1">
         <v>0.52619485099999996</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="S68" s="1">
         <v>0.95799999999999996</v>
       </c>
-      <c r="R68" s="1">
+      <c r="T68" s="1">
         <v>36.408999999999999</v>
       </c>
-      <c r="S68" s="1">
+      <c r="U68" s="1">
         <v>48.5</v>
       </c>
-      <c r="T68" s="1">
+      <c r="V68" s="1">
         <v>16.001999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
@@ -5008,40 +5418,46 @@
         <v>9</v>
       </c>
       <c r="J69" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="K69" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="L69" s="1">
         <v>30.9</v>
       </c>
-      <c r="K69" s="1">
+      <c r="M69" s="1">
         <v>107.3</v>
       </c>
-      <c r="L69" s="1">
+      <c r="N69" s="1">
         <v>108</v>
       </c>
-      <c r="M69" s="1">
+      <c r="O69" s="1">
         <v>0.99</v>
       </c>
-      <c r="N69" s="1">
+      <c r="P69" s="1">
         <v>11</v>
       </c>
-      <c r="O69" s="1">
+      <c r="Q69" s="1">
         <v>22.4069</v>
       </c>
-      <c r="P69" s="1">
+      <c r="R69" s="1">
         <v>0.72558157599999995</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="S69" s="1">
         <v>1.423</v>
       </c>
-      <c r="R69" s="1">
+      <c r="T69" s="1">
         <v>35.135399999999997</v>
       </c>
-      <c r="S69" s="1">
+      <c r="U69" s="1">
         <v>39.6</v>
       </c>
-      <c r="T69" s="1">
+      <c r="V69" s="1">
         <v>20.229199999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -5070,40 +5486,46 @@
         <v>11</v>
       </c>
       <c r="J70" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K70" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L70" s="1">
         <v>35.299999999999997</v>
       </c>
-      <c r="K70" s="1">
+      <c r="M70" s="1">
         <v>109.7</v>
       </c>
-      <c r="L70" s="1">
+      <c r="N70" s="1">
         <v>111.5</v>
       </c>
-      <c r="M70" s="1">
+      <c r="O70" s="1">
         <v>0.98</v>
       </c>
-      <c r="N70" s="1">
+      <c r="P70" s="1">
         <v>8</v>
       </c>
-      <c r="O70" s="1">
+      <c r="Q70" s="1">
         <v>16.412500000000001</v>
       </c>
-      <c r="P70" s="1">
+      <c r="R70" s="1">
         <v>0.46498857599999999</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="S70" s="1">
         <v>1.258</v>
       </c>
-      <c r="R70" s="1">
+      <c r="T70" s="1">
         <v>40.119999999999997</v>
       </c>
-      <c r="S70" s="1">
+      <c r="U70" s="1">
         <v>48.9</v>
       </c>
-      <c r="T70" s="1">
+      <c r="V70" s="1">
         <v>21.388999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -5132,40 +5554,46 @@
         <v>11</v>
       </c>
       <c r="J71" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="K71" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="L71" s="1">
         <v>30.2</v>
       </c>
-      <c r="K71" s="1">
+      <c r="M71" s="1">
         <v>103</v>
       </c>
-      <c r="L71" s="1">
+      <c r="N71" s="1">
         <v>106.8</v>
       </c>
-      <c r="M71" s="1">
+      <c r="O71" s="1">
         <v>0.96</v>
       </c>
-      <c r="N71" s="1">
+      <c r="P71" s="1">
         <v>6</v>
       </c>
-      <c r="O71" s="1">
+      <c r="Q71" s="1">
         <v>15.919700000000001</v>
       </c>
-      <c r="P71" s="1">
+      <c r="R71" s="1">
         <v>0.52654304900000004</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="S71" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="R71" s="1">
+      <c r="T71" s="1">
         <v>35.067</v>
       </c>
-      <c r="S71" s="1">
+      <c r="U71" s="1">
         <v>46.6</v>
       </c>
-      <c r="T71" s="1">
+      <c r="V71" s="1">
         <v>16.948</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
@@ -5194,40 +5622,46 @@
         <v>9</v>
       </c>
       <c r="J72" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="K72" s="1">
+        <v>8.41</v>
+      </c>
+      <c r="L72" s="1">
         <v>37.5</v>
       </c>
-      <c r="K72" s="1">
+      <c r="M72" s="1">
         <v>117.5</v>
       </c>
-      <c r="L72" s="1">
+      <c r="N72" s="1">
         <v>115</v>
       </c>
-      <c r="M72" s="1">
+      <c r="O72" s="1">
         <v>1.02</v>
       </c>
-      <c r="N72" s="1">
+      <c r="P72" s="1">
         <v>7</v>
       </c>
-      <c r="O72" s="1">
+      <c r="Q72" s="1">
         <v>15.808400000000001</v>
       </c>
-      <c r="P72" s="1">
+      <c r="R72" s="1">
         <v>0.42172330099999999</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="S72" s="1">
         <v>1.3009999999999999</v>
       </c>
-      <c r="R72" s="1">
+      <c r="T72" s="1">
         <v>45.407499999999999</v>
       </c>
-      <c r="S72" s="1">
+      <c r="U72" s="1">
         <v>53.1</v>
       </c>
-      <c r="T72" s="1">
+      <c r="V72" s="1">
         <v>24.3078</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -5256,40 +5690,46 @@
         <v>11</v>
       </c>
       <c r="J73" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K73" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="L73" s="1">
         <v>30.8</v>
       </c>
-      <c r="K73" s="1">
+      <c r="M73" s="1">
         <v>110.7</v>
       </c>
-      <c r="L73" s="1">
+      <c r="N73" s="1">
         <v>109</v>
       </c>
-      <c r="M73" s="1">
+      <c r="O73" s="1">
         <v>1.02</v>
       </c>
-      <c r="N73" s="1">
+      <c r="P73" s="1">
         <v>1</v>
       </c>
-      <c r="O73" s="1">
+      <c r="Q73" s="1">
         <v>16.2441</v>
       </c>
-      <c r="P73" s="1">
+      <c r="R73" s="1">
         <v>0.52813630099999997</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="S73" s="1">
         <v>0.875</v>
       </c>
-      <c r="R73" s="1">
+      <c r="T73" s="1">
         <v>30.628900000000002</v>
       </c>
-      <c r="S73" s="1">
+      <c r="U73" s="1">
         <v>43.6</v>
       </c>
-      <c r="T73" s="1">
+      <c r="V73" s="1">
         <v>17.600899999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -5318,40 +5758,46 @@
         <v>10</v>
       </c>
       <c r="J74" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="K74" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="L74" s="1">
         <v>32.1</v>
       </c>
-      <c r="K74" s="1">
+      <c r="M74" s="1">
         <v>114.2</v>
       </c>
-      <c r="L74" s="1">
+      <c r="N74" s="1">
         <v>110.4</v>
       </c>
-      <c r="M74" s="1">
+      <c r="O74" s="1">
         <v>1.03</v>
       </c>
-      <c r="N74" s="1">
+      <c r="P74" s="1">
         <v>6</v>
       </c>
-      <c r="O74" s="1">
+      <c r="Q74" s="1">
         <v>19.531199999999998</v>
       </c>
-      <c r="P74" s="1">
+      <c r="R74" s="1">
         <v>0.608607656</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="S74" s="1">
         <v>1.0920000000000001</v>
       </c>
-      <c r="R74" s="1">
+      <c r="T74" s="1">
         <v>41.795999999999999</v>
       </c>
-      <c r="S74" s="1">
+      <c r="U74" s="1">
         <v>45.9</v>
       </c>
-      <c r="T74" s="1">
+      <c r="V74" s="1">
         <v>23.779</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
@@ -5380,34 +5826,40 @@
         <v>10</v>
       </c>
       <c r="J75" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
         <v>30</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1">
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1">
         <v>4</v>
       </c>
-      <c r="O75" s="1">
+      <c r="Q75" s="1">
         <v>14.136799999999999</v>
       </c>
-      <c r="P75" s="1">
+      <c r="R75" s="1">
         <v>0.484513266</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="S75" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="R75" s="1">
+      <c r="T75" s="1">
         <v>35.017000000000003</v>
       </c>
-      <c r="S75" s="1">
+      <c r="U75" s="1">
         <v>48.7</v>
       </c>
-      <c r="T75" s="1">
+      <c r="V75" s="1">
         <v>17.716999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
@@ -5436,40 +5888,46 @@
         <v>4</v>
       </c>
       <c r="J76" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10.32</v>
+      </c>
+      <c r="L76" s="1">
         <v>39</v>
       </c>
-      <c r="K76" s="1">
+      <c r="M76" s="1">
         <v>112</v>
       </c>
-      <c r="L76" s="1">
+      <c r="N76" s="1">
         <v>131</v>
       </c>
-      <c r="M76" s="1">
+      <c r="O76" s="1">
         <v>0.85</v>
       </c>
-      <c r="N76" s="1">
+      <c r="P76" s="1">
         <v>4</v>
       </c>
-      <c r="O76" s="1">
+      <c r="Q76" s="1">
         <v>18.168399999999998</v>
       </c>
-      <c r="P76" s="1">
+      <c r="R76" s="1">
         <v>0.46598165200000002</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="S76" s="1">
         <v>1.631</v>
       </c>
-      <c r="R76" s="1">
+      <c r="T76" s="1">
         <v>45.971499999999999</v>
       </c>
-      <c r="S76" s="1">
+      <c r="U76" s="1">
         <v>52</v>
       </c>
-      <c r="T76" s="1">
+      <c r="V76" s="1">
         <v>23.524000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
@@ -5498,34 +5956,40 @@
         <v>9</v>
       </c>
       <c r="J77" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="K77" s="1">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="L77" s="1">
         <v>34.200000000000003</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1">
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1">
         <v>6</v>
       </c>
-      <c r="O77" s="1">
+      <c r="Q77" s="1">
         <v>15.122400000000001</v>
       </c>
-      <c r="P77" s="1">
+      <c r="R77" s="1">
         <v>0.44257765799999998</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="S77" s="1">
         <v>0.88300000000000001</v>
       </c>
-      <c r="R77" s="1">
+      <c r="T77" s="1">
         <v>38.984999999999999</v>
       </c>
-      <c r="S77" s="1">
+      <c r="U77" s="1">
         <v>49.8</v>
       </c>
-      <c r="T77" s="1">
+      <c r="V77" s="1">
         <v>18.135999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -5554,40 +6018,46 @@
         <v>10</v>
       </c>
       <c r="J78" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="L78" s="1">
         <v>30</v>
       </c>
-      <c r="K78" s="1">
+      <c r="M78" s="1">
         <v>98</v>
       </c>
-      <c r="L78" s="1">
+      <c r="N78" s="1">
         <v>106</v>
       </c>
-      <c r="M78" s="1">
+      <c r="O78" s="1">
         <v>0.92</v>
       </c>
-      <c r="N78" s="1">
+      <c r="P78" s="1">
         <v>14</v>
       </c>
-      <c r="O78" s="1">
+      <c r="Q78" s="1">
         <v>16.500399999999999</v>
       </c>
-      <c r="P78" s="1">
+      <c r="R78" s="1">
         <v>0.55045413399999998</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="S78" s="1">
         <v>0.90900000000000003</v>
       </c>
-      <c r="R78" s="1">
+      <c r="T78" s="1">
         <v>39.6584</v>
       </c>
-      <c r="S78" s="1">
+      <c r="U78" s="1">
         <v>49</v>
       </c>
-      <c r="T78" s="1">
+      <c r="V78" s="1">
         <v>19.015699999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5616,40 +6086,46 @@
         <v>5</v>
       </c>
       <c r="J79" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="K79" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="L79" s="1">
         <v>31</v>
       </c>
-      <c r="K79" s="1">
+      <c r="M79" s="1">
         <v>98</v>
       </c>
-      <c r="L79" s="1">
+      <c r="N79" s="1">
         <v>106</v>
       </c>
-      <c r="M79" s="1">
+      <c r="O79" s="1">
         <v>0.92</v>
       </c>
-      <c r="N79" s="1">
+      <c r="P79" s="1">
         <v>9</v>
       </c>
-      <c r="O79" s="1">
+      <c r="Q79" s="1">
         <v>14.8942</v>
       </c>
-      <c r="P79" s="1">
+      <c r="R79" s="1">
         <v>0.48024563100000001</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="S79" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="R79" s="1">
+      <c r="T79" s="1">
         <v>33.204000000000001</v>
       </c>
-      <c r="S79" s="1">
+      <c r="U79" s="1">
         <v>46.5</v>
       </c>
-      <c r="T79" s="1">
+      <c r="V79" s="1">
         <v>16.404</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>96</v>
       </c>
@@ -5678,40 +6154,46 @@
         <v>12</v>
       </c>
       <c r="J80" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K80" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="L80" s="1">
         <v>31</v>
       </c>
-      <c r="K80" s="1">
+      <c r="M80" s="1">
         <v>98</v>
       </c>
-      <c r="L80" s="1">
+      <c r="N80" s="1">
         <v>105</v>
       </c>
-      <c r="M80" s="1">
+      <c r="O80" s="1">
         <v>0.93</v>
       </c>
-      <c r="N80" s="1">
+      <c r="P80" s="1">
         <v>5</v>
       </c>
-      <c r="O80" s="1">
+      <c r="Q80" s="1">
         <v>20.837299999999999</v>
       </c>
-      <c r="P80" s="1">
+      <c r="R80" s="1">
         <v>0.67180733100000001</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="S80" s="1">
         <v>0.622</v>
       </c>
-      <c r="R80" s="1">
+      <c r="T80" s="1">
         <v>25.195</v>
       </c>
-      <c r="S80" s="1">
+      <c r="U80" s="1">
         <v>34.5</v>
       </c>
-      <c r="T80" s="1">
+      <c r="V80" s="1">
         <v>11.292</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -5740,40 +6222,46 @@
         <v>11</v>
       </c>
       <c r="J81" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="K81" s="1">
+        <v>6</v>
+      </c>
+      <c r="L81" s="1">
         <v>30</v>
       </c>
-      <c r="K81" s="1">
+      <c r="M81" s="1">
         <v>106.8</v>
       </c>
-      <c r="L81" s="1">
+      <c r="N81" s="1">
         <v>101</v>
       </c>
-      <c r="M81" s="1">
+      <c r="O81" s="1">
         <v>1.06</v>
       </c>
-      <c r="N81" s="1">
+      <c r="P81" s="1">
         <v>5</v>
       </c>
-      <c r="O81" s="1">
+      <c r="Q81" s="1">
         <v>14.3687</v>
       </c>
-      <c r="P81" s="1">
+      <c r="R81" s="1">
         <v>0.47890550999999998</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="S81" s="1">
         <v>1.073</v>
       </c>
-      <c r="R81" s="1">
+      <c r="T81" s="1">
         <v>35.723999999999997</v>
       </c>
-      <c r="S81" s="1">
+      <c r="U81" s="1">
         <v>48.7</v>
       </c>
-      <c r="T81" s="1">
+      <c r="V81" s="1">
         <v>19.498000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -5802,40 +6290,46 @@
         <v>9</v>
       </c>
       <c r="J82" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="K82" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="L82" s="1">
         <v>31.8</v>
       </c>
-      <c r="K82" s="1">
+      <c r="M82" s="1">
         <v>109.4</v>
       </c>
-      <c r="L82" s="1">
+      <c r="N82" s="1">
         <v>104</v>
       </c>
-      <c r="M82" s="1">
+      <c r="O82" s="1">
         <v>1.05</v>
       </c>
-      <c r="N82" s="1">
+      <c r="P82" s="1">
         <v>4</v>
       </c>
-      <c r="O82" s="1">
+      <c r="Q82" s="1">
         <v>15.712199999999999</v>
       </c>
-      <c r="P82" s="1">
+      <c r="R82" s="1">
         <v>0.493597805</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="S82" s="1">
         <v>1.4139999999999999</v>
       </c>
-      <c r="R82" s="1">
+      <c r="T82" s="1">
         <v>41.137599999999999</v>
       </c>
-      <c r="S82" s="1">
+      <c r="U82" s="1">
         <v>51.3</v>
       </c>
-      <c r="T82" s="1">
+      <c r="V82" s="1">
         <v>21.972899999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
@@ -5864,40 +6358,46 @@
         <v>9</v>
       </c>
       <c r="J83" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="K83" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="L83" s="1">
         <v>38.1</v>
       </c>
-      <c r="K83" s="1">
+      <c r="M83" s="1">
         <v>98</v>
       </c>
-      <c r="L83" s="1">
+      <c r="N83" s="1">
         <v>132.5</v>
       </c>
-      <c r="M83" s="1">
+      <c r="O83" s="1">
         <v>0.74</v>
       </c>
-      <c r="N83" s="1">
+      <c r="P83" s="1">
         <v>17</v>
       </c>
-      <c r="O83" s="1">
+      <c r="Q83" s="1">
         <v>15.5207</v>
       </c>
-      <c r="P83" s="1">
+      <c r="R83" s="1">
         <v>0.40724121800000002</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="S83" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="R83" s="1">
+      <c r="T83" s="1">
         <v>46.302</v>
       </c>
-      <c r="S83" s="1">
+      <c r="U83" s="1">
         <v>51.6</v>
       </c>
-      <c r="T83" s="1">
+      <c r="V83" s="1">
         <v>21.247</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
@@ -5926,40 +6426,46 @@
         <v>7</v>
       </c>
       <c r="J84" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="K84" s="1">
+        <v>15.55</v>
+      </c>
+      <c r="L84" s="1">
         <v>35.6</v>
       </c>
-      <c r="K84" s="1">
+      <c r="M84" s="1">
         <v>134</v>
       </c>
-      <c r="L84" s="1">
+      <c r="N84" s="1">
         <v>118.5</v>
       </c>
-      <c r="M84" s="1">
+      <c r="O84" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="N84" s="1">
+      <c r="P84" s="1">
         <v>4</v>
       </c>
-      <c r="O84" s="1">
+      <c r="Q84" s="1">
         <v>23.924499999999998</v>
       </c>
-      <c r="P84" s="1">
+      <c r="R84" s="1">
         <v>0.67278158300000002</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="S84" s="1">
         <v>2.2679999999999998</v>
       </c>
-      <c r="R84" s="1">
+      <c r="T84" s="1">
         <v>56.200499999999998</v>
       </c>
-      <c r="S84" s="1">
+      <c r="U84" s="1">
         <v>48.2</v>
       </c>
-      <c r="T84" s="1">
+      <c r="V84" s="1">
         <v>34.051600000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
@@ -5988,40 +6494,46 @@
         <v>11</v>
       </c>
       <c r="J85" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="K85" s="1">
+        <v>7.91</v>
+      </c>
+      <c r="L85" s="1">
         <v>30.7</v>
       </c>
-      <c r="K85" s="1">
+      <c r="M85" s="1">
         <v>93.5</v>
       </c>
-      <c r="L85" s="1">
+      <c r="N85" s="1">
         <v>109</v>
       </c>
-      <c r="M85" s="1">
+      <c r="O85" s="1">
         <v>0.86</v>
       </c>
-      <c r="N85" s="1">
+      <c r="P85" s="1">
         <v>7</v>
       </c>
-      <c r="O85" s="1">
+      <c r="Q85" s="1">
         <v>14.6943</v>
       </c>
-      <c r="P85" s="1">
+      <c r="R85" s="1">
         <v>0.47894440500000002</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="S85" s="1">
         <v>0.60899999999999999</v>
       </c>
-      <c r="R85" s="1">
+      <c r="T85" s="1">
         <v>29.789100000000001</v>
       </c>
-      <c r="S85" s="1">
+      <c r="U85" s="1">
         <v>43.9</v>
       </c>
-      <c r="T85" s="1">
+      <c r="V85" s="1">
         <v>14.946300000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
@@ -6050,40 +6562,46 @@
         <v>9</v>
       </c>
       <c r="J86" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="K86" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="L86" s="1">
         <v>33.700000000000003</v>
       </c>
-      <c r="K86" s="1">
+      <c r="M86" s="1">
         <v>110.6</v>
       </c>
-      <c r="L86" s="1">
+      <c r="N86" s="1">
         <v>105</v>
       </c>
-      <c r="M86" s="1">
+      <c r="O86" s="1">
         <v>1.05</v>
       </c>
-      <c r="N86" s="1">
+      <c r="P86" s="1">
         <v>10</v>
       </c>
-      <c r="O86" s="1">
+      <c r="Q86" s="1">
         <v>17.165900000000001</v>
       </c>
-      <c r="P86" s="1">
+      <c r="R86" s="1">
         <v>0.49710322800000001</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="S86" s="1">
         <v>1.371</v>
       </c>
-      <c r="R86" s="1">
+      <c r="T86" s="1">
         <v>42.395000000000003</v>
       </c>
-      <c r="S86" s="1">
+      <c r="U86" s="1">
         <v>49.6</v>
       </c>
-      <c r="T86" s="1">
+      <c r="V86" s="1">
         <v>22.6</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -6112,40 +6630,46 @@
         <v>8</v>
       </c>
       <c r="J87" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="K87" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="L87" s="1">
         <v>32.799999999999997</v>
       </c>
-      <c r="K87" s="1">
+      <c r="M87" s="1">
         <v>116.3</v>
       </c>
-      <c r="L87" s="1">
+      <c r="N87" s="1">
         <v>97.5</v>
       </c>
-      <c r="M87" s="1">
+      <c r="O87" s="1">
         <v>1.19</v>
       </c>
-      <c r="N87" s="1">
+      <c r="P87" s="1">
         <v>3</v>
       </c>
-      <c r="O87" s="1">
+      <c r="Q87" s="1">
         <v>16.865300000000001</v>
       </c>
-      <c r="P87" s="1">
+      <c r="R87" s="1">
         <v>0.51473697699999998</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="S87" s="1">
         <v>1.6679999999999999</v>
       </c>
-      <c r="R87" s="1">
+      <c r="T87" s="1">
         <v>30.6797</v>
       </c>
-      <c r="S87" s="1">
+      <c r="U87" s="1">
         <v>42.3</v>
       </c>
-      <c r="T87" s="1">
+      <c r="V87" s="1">
         <v>18.5639</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -6174,40 +6698,46 @@
         <v>11</v>
       </c>
       <c r="J88" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="K88" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="L88" s="1">
         <v>31.8</v>
       </c>
-      <c r="K88" s="1">
+      <c r="M88" s="1">
         <v>91.5</v>
       </c>
-      <c r="L88" s="1">
+      <c r="N88" s="1">
         <v>116.5</v>
       </c>
-      <c r="M88" s="1">
+      <c r="O88" s="1">
         <v>0.79</v>
       </c>
-      <c r="N88" s="1">
+      <c r="P88" s="1">
         <v>5</v>
       </c>
-      <c r="O88" s="1">
+      <c r="Q88" s="1">
         <v>16.1067</v>
       </c>
-      <c r="P88" s="1">
+      <c r="R88" s="1">
         <v>0.50709026499999998</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="S88" s="1">
         <v>0.95699999999999996</v>
       </c>
-      <c r="R88" s="1">
+      <c r="T88" s="1">
         <v>37.207000000000001</v>
       </c>
-      <c r="S88" s="1">
+      <c r="U88" s="1">
         <v>47.1</v>
       </c>
-      <c r="T88" s="1">
+      <c r="V88" s="1">
         <v>18.944500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
@@ -6236,40 +6766,46 @@
         <v>11</v>
       </c>
       <c r="J89" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="K89" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="L89" s="1">
         <v>31.5</v>
       </c>
-      <c r="K89" s="1">
+      <c r="M89" s="1">
         <v>101.1</v>
       </c>
-      <c r="L89" s="1">
+      <c r="N89" s="1">
         <v>110</v>
       </c>
-      <c r="M89" s="1">
+      <c r="O89" s="1">
         <v>0.92</v>
       </c>
-      <c r="N89" s="1">
+      <c r="P89" s="1">
         <v>5</v>
       </c>
-      <c r="O89" s="1">
+      <c r="Q89" s="1">
         <v>15.153</v>
       </c>
-      <c r="P89" s="1">
+      <c r="R89" s="1">
         <v>0.46247676599999998</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="S89" s="1">
         <v>1</v>
       </c>
-      <c r="R89" s="1">
+      <c r="T89" s="1">
         <v>41.131</v>
       </c>
-      <c r="S89" s="1">
+      <c r="U89" s="1">
         <v>51.5</v>
       </c>
-      <c r="T89" s="1">
+      <c r="V89" s="1">
         <v>20.428000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
@@ -6298,40 +6834,46 @@
         <v>8</v>
       </c>
       <c r="J90" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="K90" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="L90" s="1">
         <v>31.8</v>
       </c>
-      <c r="K90" s="1">
+      <c r="M90" s="1">
         <v>112.9</v>
       </c>
-      <c r="L90" s="1">
+      <c r="N90" s="1">
         <v>106.5</v>
       </c>
-      <c r="M90" s="1">
+      <c r="O90" s="1">
         <v>1.06</v>
       </c>
-      <c r="N90" s="1">
+      <c r="P90" s="1">
         <v>5</v>
       </c>
-      <c r="O90" s="1">
+      <c r="Q90" s="1">
         <v>24.524799999999999</v>
       </c>
-      <c r="P90" s="1">
+      <c r="R90" s="1">
         <v>0.771852855</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="S90" s="1">
         <v>1.1839999999999999</v>
       </c>
-      <c r="R90" s="1">
+      <c r="T90" s="1">
         <v>34.625999999999998</v>
       </c>
-      <c r="S90" s="1">
+      <c r="U90" s="1">
         <v>37.4</v>
       </c>
-      <c r="T90" s="1">
+      <c r="V90" s="1">
         <v>19.591999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -6360,40 +6902,46 @@
         <v>11</v>
       </c>
       <c r="J91" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="K91" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="L91" s="1">
         <v>30.5</v>
       </c>
-      <c r="K91" s="1">
+      <c r="M91" s="1">
         <v>90.5</v>
       </c>
-      <c r="L91" s="1">
+      <c r="N91" s="1">
         <v>101</v>
       </c>
-      <c r="M91" s="1">
+      <c r="O91" s="1">
         <v>0.9</v>
       </c>
-      <c r="N91" s="1">
+      <c r="P91" s="1">
         <v>4</v>
       </c>
-      <c r="O91" s="1">
+      <c r="Q91" s="1">
         <v>13.6258</v>
       </c>
-      <c r="P91" s="1">
+      <c r="R91" s="1">
         <v>0.44617461000000003</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="S91" s="1">
         <v>0.94</v>
       </c>
-      <c r="R91" s="1">
+      <c r="T91" s="1">
         <v>32.396999999999998</v>
       </c>
-      <c r="S91" s="1">
+      <c r="U91" s="1">
         <v>48.1</v>
       </c>
-      <c r="T91" s="1">
+      <c r="V91" s="1">
         <v>15.048</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
@@ -6422,40 +6970,46 @@
         <v>9</v>
       </c>
       <c r="J92" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K92" s="1">
+        <v>9.82</v>
+      </c>
+      <c r="L92" s="1">
         <v>31.8</v>
       </c>
-      <c r="K92" s="1">
+      <c r="M92" s="1">
         <v>101</v>
       </c>
-      <c r="L92" s="1">
+      <c r="N92" s="1">
         <v>125</v>
       </c>
-      <c r="M92" s="1">
+      <c r="O92" s="1">
         <v>0.81</v>
       </c>
-      <c r="N92" s="1">
+      <c r="P92" s="1">
         <v>5</v>
       </c>
-      <c r="O92" s="1">
+      <c r="Q92" s="1">
         <v>16.167999999999999</v>
       </c>
-      <c r="P92" s="1">
+      <c r="R92" s="1">
         <v>0.49345504899999998</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="S92" s="1">
         <v>0.75800000000000001</v>
       </c>
-      <c r="R92" s="1">
+      <c r="T92" s="1">
         <v>44.326799999999999</v>
       </c>
-      <c r="S92" s="1">
+      <c r="U92" s="1">
         <v>51.1</v>
       </c>
-      <c r="T92" s="1">
+      <c r="V92" s="1">
         <v>21.712800000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -6484,40 +7038,46 @@
         <v>6</v>
       </c>
       <c r="J93" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="K93" s="1">
+        <v>23.56</v>
+      </c>
+      <c r="L93" s="1">
         <v>31.7</v>
       </c>
-      <c r="K93" s="1">
+      <c r="M93" s="1">
         <v>98</v>
       </c>
-      <c r="L93" s="1">
+      <c r="N93" s="1">
         <v>109</v>
       </c>
-      <c r="M93" s="1">
+      <c r="O93" s="1">
         <v>0.9</v>
       </c>
-      <c r="N93" s="1">
+      <c r="P93" s="1">
         <v>5</v>
       </c>
-      <c r="O93" s="1">
+      <c r="Q93" s="1">
         <v>16.008900000000001</v>
       </c>
-      <c r="P93" s="1">
+      <c r="R93" s="1">
         <v>0.48859924100000002</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="S93" s="1">
         <v>0.90900000000000003</v>
       </c>
-      <c r="R93" s="1">
+      <c r="T93" s="1">
         <v>36.575800000000001</v>
       </c>
-      <c r="S93" s="1">
+      <c r="U93" s="1">
         <v>48.4</v>
       </c>
-      <c r="T93" s="1">
+      <c r="V93" s="1">
         <v>17.783000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -6546,40 +7106,46 @@
         <v>8</v>
       </c>
       <c r="J94" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="K94" s="1">
+        <v>11.79</v>
+      </c>
+      <c r="L94" s="1">
         <v>36.1</v>
       </c>
-      <c r="K94" s="1">
+      <c r="M94" s="1">
         <v>114</v>
       </c>
-      <c r="L94" s="1">
+      <c r="N94" s="1">
         <v>127</v>
       </c>
-      <c r="M94" s="1">
+      <c r="O94" s="1">
         <v>0.9</v>
       </c>
-      <c r="N94" s="1">
+      <c r="P94" s="1">
         <v>11</v>
       </c>
-      <c r="O94" s="1">
+      <c r="Q94" s="1">
         <v>16.667999999999999</v>
       </c>
-      <c r="P94" s="1">
+      <c r="R94" s="1">
         <v>0.46129816200000001</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="S94" s="1">
         <v>1.5960000000000001</v>
       </c>
-      <c r="R94" s="1">
+      <c r="T94" s="1">
         <v>49.027999999999999</v>
       </c>
-      <c r="S94" s="1">
+      <c r="U94" s="1">
         <v>53.9</v>
       </c>
-      <c r="T94" s="1">
+      <c r="V94" s="1">
         <v>26.351400000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -6608,40 +7174,46 @@
         <v>9</v>
       </c>
       <c r="J95" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="K95" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="L95" s="1">
         <v>32.5</v>
       </c>
-      <c r="K95" s="1">
+      <c r="M95" s="1">
         <v>102.5</v>
       </c>
-      <c r="L95" s="1">
+      <c r="N95" s="1">
         <v>106</v>
       </c>
-      <c r="M95" s="1">
+      <c r="O95" s="1">
         <v>0.97</v>
       </c>
-      <c r="N95" s="1">
+      <c r="P95" s="1">
         <v>4</v>
       </c>
-      <c r="O95" s="1">
+      <c r="Q95" s="1">
         <v>15.893800000000001</v>
       </c>
-      <c r="P95" s="1">
+      <c r="R95" s="1">
         <v>0.48954941699999999</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="S95" s="1">
         <v>1.0660000000000001</v>
       </c>
-      <c r="R95" s="1">
+      <c r="T95" s="1">
         <v>37.948500000000003</v>
       </c>
-      <c r="S95" s="1">
+      <c r="U95" s="1">
         <v>49.7</v>
       </c>
-      <c r="T95" s="1">
+      <c r="V95" s="1">
         <v>19.633600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -6670,40 +7242,46 @@
         <v>9</v>
       </c>
       <c r="J96" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="K96" s="1">
+        <v>10.62</v>
+      </c>
+      <c r="L96" s="1">
         <v>33.799999999999997</v>
       </c>
-      <c r="K96" s="1">
+      <c r="M96" s="1">
         <v>103.5</v>
       </c>
-      <c r="L96" s="1">
+      <c r="N96" s="1">
         <v>113</v>
       </c>
-      <c r="M96" s="1">
+      <c r="O96" s="1">
         <v>0.92</v>
       </c>
-      <c r="N96" s="1">
+      <c r="P96" s="1">
         <v>3</v>
       </c>
-      <c r="O96" s="1">
+      <c r="Q96" s="1">
         <v>17.297000000000001</v>
       </c>
-      <c r="P96" s="1">
+      <c r="R96" s="1">
         <v>0.52791266599999997</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="S96" s="1">
         <v>1.149</v>
       </c>
-      <c r="R96" s="1">
+      <c r="T96" s="1">
         <v>38.305999999999997</v>
       </c>
-      <c r="S96" s="1">
+      <c r="U96" s="1">
         <v>46.8</v>
       </c>
-      <c r="T96" s="1">
+      <c r="V96" s="1">
         <v>19.934799999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -6732,40 +7310,46 @@
         <v>9</v>
       </c>
       <c r="J97" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="K97" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="L97" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="K97" s="1">
+      <c r="M97" s="1">
         <v>128</v>
       </c>
-      <c r="L97" s="1">
+      <c r="N97" s="1">
         <v>106.5</v>
       </c>
-      <c r="M97" s="1">
+      <c r="O97" s="1">
         <v>1.2</v>
       </c>
-      <c r="N97" s="1">
+      <c r="P97" s="1">
         <v>6</v>
       </c>
-      <c r="O97" s="1">
+      <c r="Q97" s="1">
         <v>23.2851</v>
       </c>
-      <c r="P97" s="1">
+      <c r="R97" s="1">
         <v>0.72170785800000004</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="S97" s="1">
         <v>1.508</v>
       </c>
-      <c r="R97" s="1">
+      <c r="T97" s="1">
         <v>38.5458</v>
       </c>
-      <c r="S97" s="1">
+      <c r="U97" s="1">
         <v>39.6</v>
       </c>
-      <c r="T97" s="1">
+      <c r="V97" s="1">
         <v>24.763200000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -6794,40 +7378,46 @@
         <v>11</v>
       </c>
       <c r="J98" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="K98" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="L98" s="1">
         <v>31.8</v>
       </c>
-      <c r="K98" s="1">
+      <c r="M98" s="1">
         <v>109.5</v>
       </c>
-      <c r="L98" s="1">
+      <c r="N98" s="1">
         <v>103.8</v>
       </c>
-      <c r="M98" s="1">
+      <c r="O98" s="1">
         <v>1.05</v>
       </c>
-      <c r="N98" s="1">
+      <c r="P98" s="1">
         <v>5</v>
       </c>
-      <c r="O98" s="1">
+      <c r="Q98" s="1">
         <v>23.053699999999999</v>
       </c>
-      <c r="P98" s="1">
+      <c r="R98" s="1">
         <v>0.72538197199999999</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="S98" s="1">
         <v>1.921</v>
       </c>
-      <c r="R98" s="1">
+      <c r="T98" s="1">
         <v>34.671500000000002</v>
       </c>
-      <c r="S98" s="1">
+      <c r="U98" s="1">
         <v>39.6</v>
       </c>
-      <c r="T98" s="1">
+      <c r="V98" s="1">
         <v>22.581499999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -6856,40 +7446,46 @@
         <v>12</v>
       </c>
       <c r="J99" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="K99" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L99" s="1">
         <v>36.5</v>
       </c>
-      <c r="K99" s="1">
+      <c r="M99" s="1">
         <v>127.4</v>
       </c>
-      <c r="L99" s="1">
+      <c r="N99" s="1">
         <v>117</v>
       </c>
-      <c r="M99" s="1">
+      <c r="O99" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N99" s="1">
+      <c r="P99" s="1">
         <v>6</v>
       </c>
-      <c r="O99" s="1">
+      <c r="Q99" s="1">
         <v>28.390499999999999</v>
       </c>
-      <c r="P99" s="1">
+      <c r="R99" s="1">
         <v>0.77825144099999999</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="S99" s="1">
         <v>1.298</v>
       </c>
-      <c r="R99" s="1">
+      <c r="T99" s="1">
         <v>44.925400000000003</v>
       </c>
-      <c r="S99" s="1">
+      <c r="U99" s="1">
         <v>40.5</v>
       </c>
-      <c r="T99" s="1">
+      <c r="V99" s="1">
         <v>25.442699999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -6918,40 +7514,46 @@
         <v>12</v>
       </c>
       <c r="J100" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="K100" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="L100" s="1">
         <v>36.9</v>
       </c>
-      <c r="K100" s="1">
+      <c r="M100" s="1">
         <v>100.5</v>
       </c>
-      <c r="L100" s="1">
+      <c r="N100" s="1">
         <v>117</v>
       </c>
-      <c r="M100" s="1">
+      <c r="O100" s="1">
         <v>0.86</v>
       </c>
-      <c r="N100" s="1">
+      <c r="P100" s="1">
         <v>7</v>
       </c>
-      <c r="O100" s="1">
+      <c r="Q100" s="1">
         <v>20.7195</v>
       </c>
-      <c r="P100" s="1">
+      <c r="R100" s="1">
         <v>0.56119968099999995</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="S100" s="1">
         <v>0.74099999999999999</v>
       </c>
-      <c r="R100" s="1">
+      <c r="T100" s="1">
         <v>38.234999999999999</v>
       </c>
-      <c r="S100" s="1">
+      <c r="U100" s="1">
         <v>44.7</v>
       </c>
-      <c r="T100" s="1">
+      <c r="V100" s="1">
         <v>15.657999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -6980,40 +7582,46 @@
         <v>12</v>
       </c>
       <c r="J101" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="K101" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="L101" s="1">
         <v>36.1</v>
       </c>
-      <c r="K101" s="1">
+      <c r="M101" s="1">
         <v>94</v>
       </c>
-      <c r="L101" s="1">
+      <c r="N101" s="1">
         <v>102</v>
       </c>
-      <c r="M101" s="1">
+      <c r="O101" s="1">
         <v>0.92</v>
       </c>
-      <c r="N101" s="1">
+      <c r="P101" s="1">
         <v>4</v>
       </c>
-      <c r="O101" s="1">
+      <c r="Q101" s="1">
         <v>17.6431</v>
       </c>
-      <c r="P101" s="1">
+      <c r="R101" s="1">
         <v>0.48918422</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="S101" s="1">
         <v>0.84499999999999997</v>
       </c>
-      <c r="R101" s="1">
+      <c r="T101" s="1">
         <v>42.181399999999996</v>
       </c>
-      <c r="S101" s="1">
+      <c r="U101" s="1">
         <v>49</v>
       </c>
-      <c r="T101" s="1">
+      <c r="V101" s="1">
         <v>22.214700000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -7042,34 +7650,40 @@
         <v>10</v>
       </c>
       <c r="J102" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K102" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="L102" s="1">
         <v>41.9</v>
       </c>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="1">
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1">
         <v>7</v>
       </c>
-      <c r="O102" s="1">
+      <c r="Q102" s="1">
         <v>20.724299999999999</v>
       </c>
-      <c r="P102" s="1">
+      <c r="R102" s="1">
         <v>0.49406223100000002</v>
       </c>
-      <c r="Q102" s="1">
+      <c r="S102" s="1">
         <v>1.8080000000000001</v>
       </c>
-      <c r="R102" s="1">
+      <c r="T102" s="1">
         <v>56.598100000000002</v>
       </c>
-      <c r="S102" s="1">
+      <c r="U102" s="1">
         <v>53.1</v>
       </c>
-      <c r="T102" s="1">
+      <c r="V102" s="1">
         <v>29.445</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -7098,40 +7712,46 @@
         <v>8</v>
       </c>
       <c r="J103" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="K103" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="L103" s="1">
         <v>38.200000000000003</v>
       </c>
-      <c r="K103" s="1">
+      <c r="M103" s="1">
         <v>119.8</v>
       </c>
-      <c r="L103" s="1">
+      <c r="N103" s="1">
         <v>105</v>
       </c>
-      <c r="M103" s="1">
+      <c r="O103" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N103" s="1">
+      <c r="P103" s="1">
         <v>2</v>
       </c>
-      <c r="O103" s="1">
+      <c r="Q103" s="1">
         <v>16.953900000000001</v>
       </c>
-      <c r="P103" s="1">
+      <c r="R103" s="1">
         <v>0.44364527999999998</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="S103" s="1">
         <v>0.80400000000000005</v>
       </c>
-      <c r="R103" s="1">
+      <c r="T103" s="1">
         <v>42.767400000000002</v>
       </c>
-      <c r="S103" s="1">
+      <c r="U103" s="1">
         <v>48.3</v>
       </c>
-      <c r="T103" s="1">
+      <c r="V103" s="1">
         <v>21.477</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -7160,40 +7780,46 @@
         <v>8</v>
       </c>
       <c r="J104" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="K104" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L104" s="1">
         <v>36.200000000000003</v>
       </c>
-      <c r="K104" s="1">
+      <c r="M104" s="1">
         <v>110</v>
       </c>
-      <c r="L104" s="1">
+      <c r="N104" s="1">
         <v>106</v>
       </c>
-      <c r="M104" s="1">
+      <c r="O104" s="1">
         <v>1.04</v>
       </c>
-      <c r="N104" s="1">
+      <c r="P104" s="1">
         <v>9</v>
       </c>
-      <c r="O104" s="1">
+      <c r="Q104" s="1">
         <v>17.345800000000001</v>
       </c>
-      <c r="P104" s="1">
+      <c r="R104" s="1">
         <v>0.52940206499999998</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="S104" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="R104" s="1">
+      <c r="T104" s="1">
         <v>40.132199999999997</v>
       </c>
-      <c r="S104" s="1">
+      <c r="U104" s="1">
         <v>47.7</v>
       </c>
-      <c r="T104" s="1">
+      <c r="V104" s="1">
         <v>18.304600000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -7222,40 +7848,46 @@
         <v>11</v>
       </c>
       <c r="J105" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="K105" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="L105" s="1">
         <v>32.6</v>
       </c>
-      <c r="K105" s="1">
+      <c r="M105" s="1">
         <v>102.5</v>
       </c>
-      <c r="L105" s="1">
+      <c r="N105" s="1">
         <v>109</v>
       </c>
-      <c r="M105" s="1">
+      <c r="O105" s="1">
         <v>0.94</v>
       </c>
-      <c r="N105" s="1">
+      <c r="P105" s="1">
         <v>4</v>
       </c>
-      <c r="O105" s="1">
+      <c r="Q105" s="1">
         <v>13.0084</v>
       </c>
-      <c r="P105" s="1">
+      <c r="R105" s="1">
         <v>0.39702255400000003</v>
       </c>
-      <c r="Q105" s="1">
+      <c r="S105" s="1">
         <v>0.63800000000000001</v>
       </c>
-      <c r="R105" s="1">
+      <c r="T105" s="1">
         <v>36.495899999999999</v>
       </c>
-      <c r="S105" s="1">
+      <c r="U105" s="1">
         <v>51.6</v>
       </c>
-      <c r="T105" s="1">
+      <c r="V105" s="1">
         <v>17.232500000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -7284,40 +7916,46 @@
         <v>10</v>
       </c>
       <c r="J106" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K106" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="L106" s="1">
         <v>34.5</v>
       </c>
-      <c r="K106" s="1">
+      <c r="M106" s="1">
         <v>110.5</v>
       </c>
-      <c r="L106" s="1">
+      <c r="N106" s="1">
         <v>121</v>
       </c>
-      <c r="M106" s="1">
+      <c r="O106" s="1">
         <v>0.91</v>
       </c>
-      <c r="N106" s="1">
+      <c r="P106" s="1">
         <v>1</v>
       </c>
-      <c r="O106" s="1">
+      <c r="Q106" s="1">
         <v>19.746200000000002</v>
       </c>
-      <c r="P106" s="1">
+      <c r="R106" s="1">
         <v>0.60266341499999998</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="S106" s="1">
         <v>1.52</v>
       </c>
-      <c r="R106" s="1">
+      <c r="T106" s="1">
         <v>48.138599999999997</v>
       </c>
-      <c r="S106" s="1">
+      <c r="U106" s="1">
         <v>49.9</v>
       </c>
-      <c r="T106" s="1">
+      <c r="V106" s="1">
         <v>23.9802</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -7333,11 +7971,17 @@
       <c r="I107">
         <v>10</v>
       </c>
-      <c r="N107">
+      <c r="J107">
+        <v>3.03</v>
+      </c>
+      <c r="K107">
+        <v>10.66</v>
+      </c>
+      <c r="P107">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -7366,22 +8010,28 @@
         <v>11</v>
       </c>
       <c r="J108">
+        <v>3.75</v>
+      </c>
+      <c r="K108">
+        <v>8.24</v>
+      </c>
+      <c r="L108">
         <v>30.3</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>91</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>112</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>0.81</v>
       </c>
-      <c r="N108">
+      <c r="P108">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -7410,9 +8060,15 @@
         <v>8</v>
       </c>
       <c r="J109">
+        <v>3.28</v>
+      </c>
+      <c r="K109">
+        <v>10.28</v>
+      </c>
+      <c r="L109">
         <v>30.07</v>
       </c>
-      <c r="N109">
+      <c r="P109">
         <v>5</v>
       </c>
     </row>
